--- a/IPA Zeitplan.xlsx
+++ b/IPA Zeitplan.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wppcloud-my.sharepoint.com/personal/hunter_wilson_wundermanthompson_com/Documents/IPA Documentation/HW-IPA-Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7814B165-9178-445A-AABE-F293715F2C8C}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A5AA07-7DA7-44AD-BD9B-E215D3B45A85}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Nr.</t>
   </si>
@@ -51,9 +50,6 @@
     <t>Tag 1</t>
   </si>
   <si>
-    <t>Aufgabe</t>
-  </si>
-  <si>
     <t>02.05.2024</t>
   </si>
   <si>
@@ -174,9 +170,6 @@
     <t>Ablaufdiagramm</t>
   </si>
   <si>
-    <t>Testkonzept</t>
-  </si>
-  <si>
     <t>Testausführung</t>
   </si>
   <si>
@@ -205,6 +198,18 @@
   </si>
   <si>
     <t>Expert-Visit</t>
+  </si>
+  <si>
+    <t>Speichern</t>
+  </si>
+  <si>
+    <t>Anzeigen</t>
+  </si>
+  <si>
+    <t>Copy and Paste</t>
+  </si>
+  <si>
+    <t>Integrationskonzept</t>
   </si>
 </sst>
 </file>
@@ -427,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -481,6 +486,87 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,112 +576,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,8 +593,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC7C3"/>
+      <color rgb="FFF9D0C9"/>
+      <color rgb="FFECD8D6"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -873,7 +863,7 @@
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>160196</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>109669</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -947,13 +937,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>72887</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>92766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>153571</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>122922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1027,13 +1017,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>65315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>167771</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>95471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1178,6 +1168,86 @@
               </a:solidFill>
             </a:rPr>
             <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CH" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>172999</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Up 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B2D844-9C7C-4A14-83E1-B6E4C79E0E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3756660" y="1684020"/>
+          <a:ext cx="310159" cy="439951"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC7C3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC7C3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
           </a:r>
           <a:endParaRPr lang="en-CH" sz="1100">
             <a:solidFill>
@@ -1512,23 +1582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A23135-D149-497F-8317-514DDE7CE48E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F2261-3027-4CFE-88E9-EDFC4439F1C6}">
-  <dimension ref="A1:BC46"/>
+  <dimension ref="A1:BC48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,179 +1598,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="48"/>
+      <c r="AF1" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="48"/>
+    </row>
+    <row r="2" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
-      <c r="AF1" s="19" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="48"/>
+      <c r="AF2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="21"/>
-    </row>
-    <row r="2" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="2" t="s">
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="47"/>
+      <c r="BC2" s="48"/>
+    </row>
+    <row r="3" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="21"/>
-      <c r="AF2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="21"/>
-    </row>
-    <row r="3" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3">
         <f>SUM(C5,C7)</f>
         <v>4</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="47"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="10"/>
       <c r="H3" s="9"/>
       <c r="I3" s="13"/>
@@ -1734,10 +1792,10 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="10"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -1764,322 +1822,322 @@
       <c r="BC3" s="10"/>
     </row>
     <row r="4" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="4">
         <f>SUM(C6,C8)</f>
         <v>4</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="37"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="37"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="15"/>
-      <c r="O4" s="37"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
-      <c r="S4" s="37"/>
+      <c r="S4" s="24"/>
       <c r="T4" s="14"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="37"/>
+      <c r="W4" s="24"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="37"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="24"/>
       <c r="AJ4" s="14"/>
       <c r="AK4" s="15"/>
       <c r="AL4" s="15"/>
-      <c r="AM4" s="37"/>
+      <c r="AM4" s="24"/>
       <c r="AN4" s="14"/>
       <c r="AO4" s="15"/>
       <c r="AP4" s="15"/>
-      <c r="AQ4" s="37"/>
+      <c r="AQ4" s="24"/>
       <c r="AR4" s="14"/>
       <c r="AS4" s="15"/>
       <c r="AT4" s="15"/>
-      <c r="AU4" s="37"/>
+      <c r="AU4" s="24"/>
       <c r="AV4" s="14"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="15"/>
-      <c r="AY4" s="37"/>
+      <c r="AY4" s="24"/>
       <c r="AZ4" s="14"/>
       <c r="BA4" s="15"/>
       <c r="BB4" s="15"/>
-      <c r="BC4" s="37"/>
+      <c r="BC4" s="24"/>
     </row>
     <row r="5" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>32</v>
+      <c r="A5" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="37"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="37"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="37"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="15"/>
-      <c r="O5" s="37"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
-      <c r="S5" s="37"/>
+      <c r="S5" s="24"/>
       <c r="T5" s="14"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="37"/>
+      <c r="W5" s="24"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="37"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="24"/>
       <c r="AJ5" s="14"/>
       <c r="AK5" s="15"/>
       <c r="AL5" s="15"/>
-      <c r="AM5" s="37"/>
+      <c r="AM5" s="24"/>
       <c r="AN5" s="14"/>
       <c r="AO5" s="15"/>
       <c r="AP5" s="15"/>
-      <c r="AQ5" s="37"/>
+      <c r="AQ5" s="24"/>
       <c r="AR5" s="14"/>
       <c r="AS5" s="15"/>
       <c r="AT5" s="15"/>
-      <c r="AU5" s="37"/>
+      <c r="AU5" s="24"/>
       <c r="AV5" s="14"/>
       <c r="AW5" s="15"/>
       <c r="AX5" s="15"/>
-      <c r="AY5" s="37"/>
+      <c r="AY5" s="24"/>
       <c r="AZ5" s="14"/>
       <c r="BA5" s="15"/>
       <c r="BB5" s="15"/>
-      <c r="BC5" s="37"/>
+      <c r="BC5" s="24"/>
     </row>
     <row r="6" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="37"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="37"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="37"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="37"/>
+      <c r="O6" s="24"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
-      <c r="S6" s="37"/>
+      <c r="S6" s="24"/>
       <c r="T6" s="14"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
-      <c r="W6" s="37"/>
+      <c r="W6" s="24"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="37"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="24"/>
       <c r="AJ6" s="14"/>
       <c r="AK6" s="15"/>
       <c r="AL6" s="15"/>
-      <c r="AM6" s="37"/>
+      <c r="AM6" s="24"/>
       <c r="AN6" s="14"/>
       <c r="AO6" s="15"/>
       <c r="AP6" s="15"/>
-      <c r="AQ6" s="37"/>
+      <c r="AQ6" s="24"/>
       <c r="AR6" s="14"/>
       <c r="AS6" s="15"/>
       <c r="AT6" s="15"/>
-      <c r="AU6" s="37"/>
+      <c r="AU6" s="24"/>
       <c r="AV6" s="14"/>
       <c r="AW6" s="15"/>
       <c r="AX6" s="15"/>
-      <c r="AY6" s="37"/>
+      <c r="AY6" s="24"/>
       <c r="AZ6" s="14"/>
       <c r="BA6" s="15"/>
       <c r="BB6" s="15"/>
-      <c r="BC6" s="37"/>
+      <c r="BC6" s="24"/>
     </row>
     <row r="7" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>33</v>
+      <c r="A7" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="37"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="37"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="37"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
-      <c r="S7" s="37"/>
+      <c r="S7" s="24"/>
       <c r="T7" s="14"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="37"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="37"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="24"/>
       <c r="AJ7" s="14"/>
       <c r="AK7" s="15"/>
       <c r="AL7" s="15"/>
-      <c r="AM7" s="37"/>
+      <c r="AM7" s="24"/>
       <c r="AN7" s="14"/>
       <c r="AO7" s="15"/>
       <c r="AP7" s="15"/>
-      <c r="AQ7" s="37"/>
+      <c r="AQ7" s="24"/>
       <c r="AR7" s="14"/>
       <c r="AS7" s="15"/>
       <c r="AT7" s="15"/>
-      <c r="AU7" s="37"/>
+      <c r="AU7" s="24"/>
       <c r="AV7" s="14"/>
       <c r="AW7" s="15"/>
       <c r="AX7" s="15"/>
-      <c r="AY7" s="37"/>
+      <c r="AY7" s="24"/>
       <c r="AZ7" s="14"/>
       <c r="BA7" s="15"/>
       <c r="BB7" s="15"/>
-      <c r="BC7" s="37"/>
+      <c r="BC7" s="24"/>
     </row>
     <row r="8" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="18">
         <v>2</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="12"/>
       <c r="L8" s="11"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="42"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="12"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
       <c r="S8" s="12"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
       <c r="W8" s="12"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
       <c r="AF8" s="17"/>
       <c r="AG8" s="17"/>
       <c r="AH8" s="17"/>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="11"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
       <c r="AM8" s="12"/>
       <c r="AN8" s="11"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
       <c r="AQ8" s="12"/>
       <c r="AR8" s="11"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
       <c r="AU8" s="12"/>
       <c r="AV8" s="11"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="11"/>
-      <c r="BA8" s="42"/>
-      <c r="BB8" s="42"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="28"/>
       <c r="BC8" s="12"/>
     </row>
     <row r="9" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="25"/>
+      <c r="A9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="3">
         <f>SUM(C11)</f>
         <v>4</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="9"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -2100,10 +2158,10 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="10"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
@@ -2130,192 +2188,192 @@
       <c r="BC9" s="10"/>
     </row>
     <row r="10" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4">
         <f>SUM(C12)</f>
         <v>4</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="50"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="37"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="37"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="37"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="37"/>
+      <c r="S10" s="24"/>
       <c r="T10" s="14"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="37"/>
+      <c r="W10" s="24"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="37"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="24"/>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="15"/>
       <c r="AL10" s="15"/>
-      <c r="AM10" s="37"/>
+      <c r="AM10" s="24"/>
       <c r="AN10" s="14"/>
       <c r="AO10" s="15"/>
       <c r="AP10" s="15"/>
-      <c r="AQ10" s="37"/>
+      <c r="AQ10" s="24"/>
       <c r="AR10" s="14"/>
       <c r="AS10" s="15"/>
       <c r="AT10" s="15"/>
-      <c r="AU10" s="37"/>
+      <c r="AU10" s="24"/>
       <c r="AV10" s="14"/>
       <c r="AW10" s="15"/>
       <c r="AX10" s="15"/>
-      <c r="AY10" s="37"/>
+      <c r="AY10" s="24"/>
       <c r="AZ10" s="14"/>
       <c r="BA10" s="15"/>
       <c r="BB10" s="15"/>
-      <c r="BC10" s="37"/>
+      <c r="BC10" s="24"/>
     </row>
     <row r="11" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>38</v>
+      <c r="B11" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="49"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="37"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="37"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
-      <c r="S11" s="37"/>
+      <c r="S11" s="24"/>
       <c r="T11" s="14"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="37"/>
+      <c r="W11" s="24"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="37"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="24"/>
       <c r="AJ11" s="14"/>
       <c r="AK11" s="15"/>
       <c r="AL11" s="15"/>
-      <c r="AM11" s="37"/>
+      <c r="AM11" s="24"/>
       <c r="AN11" s="14"/>
       <c r="AO11" s="15"/>
       <c r="AP11" s="15"/>
-      <c r="AQ11" s="37"/>
+      <c r="AQ11" s="24"/>
       <c r="AR11" s="14"/>
       <c r="AS11" s="15"/>
       <c r="AT11" s="15"/>
-      <c r="AU11" s="37"/>
+      <c r="AU11" s="24"/>
       <c r="AV11" s="14"/>
       <c r="AW11" s="15"/>
       <c r="AX11" s="15"/>
-      <c r="AY11" s="37"/>
+      <c r="AY11" s="24"/>
       <c r="AZ11" s="14"/>
       <c r="BA11" s="15"/>
       <c r="BB11" s="15"/>
-      <c r="BC11" s="37"/>
+      <c r="BC11" s="24"/>
     </row>
     <row r="12" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="18">
         <v>4</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="50"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="37"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="37"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="37"/>
+      <c r="O12" s="24"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="37"/>
+      <c r="S12" s="24"/>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
-      <c r="W12" s="37"/>
+      <c r="W12" s="24"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="37"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="24"/>
       <c r="AJ12" s="14"/>
       <c r="AK12" s="15"/>
       <c r="AL12" s="15"/>
-      <c r="AM12" s="37"/>
+      <c r="AM12" s="24"/>
       <c r="AN12" s="14"/>
       <c r="AO12" s="15"/>
       <c r="AP12" s="15"/>
-      <c r="AQ12" s="37"/>
+      <c r="AQ12" s="24"/>
       <c r="AR12" s="14"/>
       <c r="AS12" s="15"/>
       <c r="AT12" s="15"/>
-      <c r="AU12" s="37"/>
+      <c r="AU12" s="24"/>
       <c r="AV12" s="14"/>
       <c r="AW12" s="15"/>
       <c r="AX12" s="15"/>
-      <c r="AY12" s="37"/>
+      <c r="AY12" s="24"/>
       <c r="AZ12" s="14"/>
       <c r="BA12" s="15"/>
       <c r="BB12" s="15"/>
-      <c r="BC12" s="37"/>
+      <c r="BC12" s="24"/>
     </row>
     <row r="13" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="25"/>
+      <c r="A13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="37"/>
       <c r="C13" s="3">
         <f>SUM(C15,C17,C19)</f>
         <v>6</v>
@@ -2324,10 +2382,10 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="55"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
       <c r="N13" s="13"/>
@@ -2344,10 +2402,10 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="10"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
       <c r="AH13" s="16"/>
@@ -2374,71 +2432,71 @@
       <c r="BC13" s="10"/>
     </row>
     <row r="14" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="4">
         <f t="shared" ref="C14" si="0">SUM(C16,C18)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="37"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="37"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="37"/>
+      <c r="M14" s="24"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="37"/>
+      <c r="O14" s="24"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
-      <c r="S14" s="37"/>
+      <c r="S14" s="24"/>
       <c r="T14" s="14"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
-      <c r="W14" s="37"/>
+      <c r="W14" s="24"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="52"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="15"/>
       <c r="AJ14" s="14"/>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="52"/>
-      <c r="AM14" s="37"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="24"/>
       <c r="AN14" s="14"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
-      <c r="AQ14" s="37"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="24"/>
       <c r="AR14" s="14"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="52"/>
-      <c r="AU14" s="37"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="24"/>
       <c r="AV14" s="14"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="37"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="24"/>
       <c r="AZ14" s="14"/>
-      <c r="BA14" s="52"/>
-      <c r="BB14" s="52"/>
-      <c r="BC14" s="37"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="24"/>
     </row>
     <row r="15" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="40">
         <v>2.1</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>44</v>
+      <c r="B15" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -2446,370 +2504,366 @@
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="39"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="37"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="37"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="37"/>
+      <c r="O15" s="24"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
-      <c r="S15" s="37"/>
+      <c r="S15" s="24"/>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
-      <c r="W15" s="37"/>
+      <c r="W15" s="24"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="52"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="15"/>
       <c r="AJ15" s="14"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="52"/>
-      <c r="AM15" s="37"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="24"/>
       <c r="AN15" s="14"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="52"/>
-      <c r="AQ15" s="37"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="24"/>
       <c r="AR15" s="14"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="37"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="24"/>
       <c r="AV15" s="14"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="37"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="24"/>
       <c r="AZ15" s="14"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="37"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
+      <c r="BC15" s="24"/>
     </row>
     <row r="16" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="18">
-        <f t="shared" ref="C12:C40" si="1">SUM(D16:BC16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="37"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="37"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="37"/>
+      <c r="O16" s="24"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
-      <c r="S16" s="37"/>
+      <c r="S16" s="24"/>
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
-      <c r="W16" s="37"/>
+      <c r="W16" s="24"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="52"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="15"/>
       <c r="AJ16" s="14"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="37"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="24"/>
       <c r="AN16" s="14"/>
-      <c r="AO16" s="52"/>
-      <c r="AP16" s="52"/>
-      <c r="AQ16" s="37"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="24"/>
       <c r="AR16" s="14"/>
-      <c r="AS16" s="52"/>
-      <c r="AT16" s="52"/>
-      <c r="AU16" s="37"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="24"/>
       <c r="AV16" s="14"/>
-      <c r="AW16" s="52"/>
-      <c r="AX16" s="52"/>
-      <c r="AY16" s="37"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="24"/>
       <c r="AZ16" s="14"/>
-      <c r="BA16" s="52"/>
-      <c r="BB16" s="52"/>
-      <c r="BC16" s="37"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="24"/>
     </row>
     <row r="17" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="40">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>43</v>
+      <c r="B17" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="6">
         <v>2</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="37"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="37"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="24"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="37"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="37"/>
+      <c r="O17" s="24"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
-      <c r="S17" s="37"/>
+      <c r="S17" s="24"/>
       <c r="T17" s="14"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="37"/>
+      <c r="W17" s="24"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="52"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="15"/>
       <c r="AJ17" s="14"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="52"/>
-      <c r="AM17" s="37"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="24"/>
       <c r="AN17" s="14"/>
-      <c r="AO17" s="52"/>
-      <c r="AP17" s="52"/>
-      <c r="AQ17" s="37"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="24"/>
       <c r="AR17" s="14"/>
-      <c r="AS17" s="52"/>
-      <c r="AT17" s="52"/>
-      <c r="AU17" s="37"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="24"/>
       <c r="AV17" s="14"/>
-      <c r="AW17" s="52"/>
-      <c r="AX17" s="52"/>
-      <c r="AY17" s="37"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="24"/>
       <c r="AZ17" s="14"/>
-      <c r="BA17" s="52"/>
-      <c r="BB17" s="52"/>
-      <c r="BC17" s="37"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="24"/>
     </row>
     <row r="18" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="37"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="37"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="37"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="24"/>
       <c r="P18" s="14"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="37"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="24"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="37"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="24"/>
       <c r="X18" s="14"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="52"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="15"/>
       <c r="AJ18" s="14"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="37"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="24"/>
       <c r="AN18" s="14"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="52"/>
-      <c r="AQ18" s="37"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="24"/>
       <c r="AR18" s="14"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="37"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="24"/>
       <c r="AV18" s="14"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="37"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="24"/>
       <c r="AZ18" s="14"/>
-      <c r="BA18" s="52"/>
-      <c r="BB18" s="52"/>
-      <c r="BC18" s="37"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="24"/>
     </row>
     <row r="19" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="36">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>45</v>
+      <c r="B19" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="37"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="24"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="37"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="14"/>
-      <c r="O19" s="37"/>
+      <c r="O19" s="24"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="37"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="24"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="37"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="24"/>
       <c r="X19" s="14"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
       <c r="AI19" s="14"/>
       <c r="AJ19" s="14"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="37"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="24"/>
       <c r="AN19" s="14"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="52"/>
-      <c r="AQ19" s="37"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="24"/>
       <c r="AR19" s="14"/>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="52"/>
-      <c r="AU19" s="37"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="24"/>
       <c r="AV19" s="14"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="37"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="24"/>
       <c r="AZ19" s="14"/>
-      <c r="BA19" s="52"/>
-      <c r="BB19" s="52"/>
-      <c r="BC19" s="37"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="37"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="37"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="24"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="37"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="24"/>
       <c r="P20" s="14"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="37"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="24"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="37"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="24"/>
       <c r="X20" s="14"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="52"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="15"/>
       <c r="AJ20" s="11"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
       <c r="AM20" s="12"/>
       <c r="AN20" s="11"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
       <c r="AQ20" s="12"/>
       <c r="AR20" s="11"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28"/>
       <c r="AU20" s="12"/>
       <c r="AV20" s="11"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
+      <c r="AW20" s="28"/>
+      <c r="AX20" s="28"/>
       <c r="AY20" s="12"/>
       <c r="AZ20" s="11"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="42"/>
+      <c r="BA20" s="28"/>
+      <c r="BB20" s="28"/>
       <c r="BC20" s="12"/>
     </row>
     <row r="21" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="25"/>
+      <c r="A21" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="37"/>
       <c r="C21" s="3">
-        <f>SUM(C23,C25)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="13"/>
@@ -2823,30 +2877,30 @@
       <c r="M21" s="10"/>
       <c r="N21" s="13"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
       <c r="AF21" s="16"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="16"/>
       <c r="AI21" s="10"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="45"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="31"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="13"/>
       <c r="AP21" s="13"/>
@@ -2865,1570 +2919,1672 @@
       <c r="BC21" s="10"/>
     </row>
     <row r="22" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="4">
-        <f t="shared" ref="C22" si="2">SUM(C24,C26)</f>
+        <f t="shared" ref="C22" si="1">SUM(C24,C28)</f>
         <v>0</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="37"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="37"/>
+      <c r="K22" s="24"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="37"/>
+      <c r="M22" s="24"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="37"/>
+      <c r="O22" s="24"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
-      <c r="S22" s="37"/>
+      <c r="S22" s="24"/>
       <c r="T22" s="14"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="37"/>
+      <c r="W22" s="24"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="37"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="24"/>
       <c r="AJ22" s="14"/>
       <c r="AK22" s="15"/>
       <c r="AL22" s="15"/>
-      <c r="AM22" s="37"/>
+      <c r="AM22" s="24"/>
       <c r="AN22" s="14"/>
       <c r="AO22" s="15"/>
       <c r="AP22" s="15"/>
-      <c r="AQ22" s="37"/>
+      <c r="AQ22" s="24"/>
       <c r="AR22" s="14"/>
       <c r="AS22" s="15"/>
       <c r="AT22" s="15"/>
-      <c r="AU22" s="37"/>
+      <c r="AU22" s="24"/>
       <c r="AV22" s="14"/>
       <c r="AW22" s="15"/>
       <c r="AX22" s="15"/>
-      <c r="AY22" s="37"/>
+      <c r="AY22" s="24"/>
       <c r="AZ22" s="14"/>
       <c r="BA22" s="15"/>
       <c r="BB22" s="15"/>
-      <c r="BC22" s="37"/>
+      <c r="BC22" s="24"/>
     </row>
     <row r="23" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="40">
         <v>7</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>4</v>
+      <c r="B23" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ref="C23" si="3">SUM(D23:BC23)</f>
+        <f t="shared" ref="C23:C25" si="2">SUM(D23:BC23)</f>
         <v>0</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="37"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="37"/>
+      <c r="K23" s="24"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="37"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="15"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="50"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="37"/>
+      <c r="W23" s="24"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="37"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="24"/>
       <c r="AJ23" s="14"/>
       <c r="AK23" s="15"/>
       <c r="AL23" s="15"/>
-      <c r="AM23" s="37"/>
+      <c r="AM23" s="24"/>
       <c r="AN23" s="14"/>
       <c r="AO23" s="15"/>
       <c r="AP23" s="15"/>
-      <c r="AQ23" s="37"/>
+      <c r="AQ23" s="24"/>
       <c r="AR23" s="14"/>
       <c r="AS23" s="15"/>
       <c r="AT23" s="15"/>
-      <c r="AU23" s="37"/>
+      <c r="AU23" s="24"/>
       <c r="AV23" s="14"/>
       <c r="AW23" s="15"/>
       <c r="AX23" s="15"/>
-      <c r="AY23" s="37"/>
+      <c r="AY23" s="24"/>
       <c r="AZ23" s="14"/>
       <c r="BA23" s="15"/>
       <c r="BB23" s="15"/>
-      <c r="BC23" s="37"/>
+      <c r="BC23" s="24"/>
     </row>
     <row r="24" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C18:C42" si="3">SUM(D24:BC24)</f>
         <v>0</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="37"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="14"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="37"/>
+      <c r="K24" s="24"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="37"/>
+      <c r="M24" s="24"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="37"/>
+      <c r="O24" s="24"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
-      <c r="S24" s="37"/>
+      <c r="S24" s="24"/>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="37"/>
+      <c r="W24" s="24"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="37"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="24"/>
       <c r="AJ24" s="14"/>
       <c r="AK24" s="15"/>
       <c r="AL24" s="15"/>
-      <c r="AM24" s="37"/>
+      <c r="AM24" s="24"/>
       <c r="AN24" s="14"/>
       <c r="AO24" s="15"/>
       <c r="AP24" s="15"/>
-      <c r="AQ24" s="37"/>
+      <c r="AQ24" s="24"/>
       <c r="AR24" s="14"/>
       <c r="AS24" s="15"/>
       <c r="AT24" s="15"/>
-      <c r="AU24" s="37"/>
+      <c r="AU24" s="24"/>
       <c r="AV24" s="14"/>
       <c r="AW24" s="15"/>
       <c r="AX24" s="15"/>
-      <c r="AY24" s="37"/>
+      <c r="AY24" s="24"/>
       <c r="AZ24" s="14"/>
       <c r="BA24" s="15"/>
       <c r="BB24" s="15"/>
-      <c r="BC24" s="37"/>
+      <c r="BC24" s="24"/>
     </row>
     <row r="25" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+      <c r="A25" s="40">
         <v>8</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>4</v>
+      <c r="B25" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="37"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="14"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="37"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="37"/>
+      <c r="M25" s="24"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="37"/>
+      <c r="O25" s="24"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="15"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="27"/>
       <c r="AL25" s="15"/>
-      <c r="AM25" s="37"/>
+      <c r="AM25" s="24"/>
       <c r="AN25" s="14"/>
       <c r="AO25" s="15"/>
       <c r="AP25" s="15"/>
-      <c r="AQ25" s="37"/>
+      <c r="AQ25" s="24"/>
       <c r="AR25" s="14"/>
       <c r="AS25" s="15"/>
       <c r="AT25" s="15"/>
-      <c r="AU25" s="37"/>
+      <c r="AU25" s="24"/>
       <c r="AV25" s="14"/>
       <c r="AW25" s="15"/>
       <c r="AX25" s="15"/>
-      <c r="AY25" s="37"/>
+      <c r="AY25" s="24"/>
       <c r="AZ25" s="14"/>
       <c r="BA25" s="15"/>
       <c r="BB25" s="15"/>
-      <c r="BC25" s="37"/>
+      <c r="BC25" s="24"/>
     </row>
     <row r="26" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="12"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="42"/>
-      <c r="AP26" s="42"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="11"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="12"/>
-      <c r="AZ26" s="11"/>
-      <c r="BA26" s="42"/>
-      <c r="BB26" s="42"/>
-      <c r="BC26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="24"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="24"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="14"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="3">
-        <f>SUM(C29)</f>
+      <c r="A27" s="40">
         <v>8</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="47"/>
-      <c r="AL27" s="47"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="34"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="10"/>
-      <c r="AV27" s="9"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="10"/>
-      <c r="AZ27" s="9"/>
-      <c r="BA27" s="13"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="10"/>
+      <c r="B27" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="24"/>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="24"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="24"/>
+      <c r="AZ27" s="14"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="24"/>
     </row>
     <row r="28" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="4">
-        <f>SUM(C30)</f>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="14"/>
-      <c r="AO28" s="15"/>
-      <c r="AP28" s="15"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="14"/>
-      <c r="AS28" s="15"/>
-      <c r="AT28" s="15"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="14"/>
-      <c r="AW28" s="15"/>
-      <c r="AX28" s="15"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="14"/>
-      <c r="BA28" s="15"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="37"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="28"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="28"/>
+      <c r="AX28" s="28"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="28"/>
+      <c r="BB28" s="28"/>
+      <c r="BC28" s="12"/>
     </row>
     <row r="29" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="A29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="3">
+        <f>SUM(C31)</f>
         <v>8</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="15"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="15"/>
-      <c r="AP29" s="15"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="14"/>
-      <c r="AS29" s="15"/>
-      <c r="AT29" s="15"/>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="14"/>
-      <c r="AW29" s="15"/>
-      <c r="AX29" s="15"/>
-      <c r="AY29" s="37"/>
-      <c r="AZ29" s="14"/>
-      <c r="BA29" s="15"/>
-      <c r="BB29" s="15"/>
-      <c r="BC29" s="37"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="31"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="9"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="9"/>
+      <c r="BA29" s="13"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="10"/>
     </row>
     <row r="30" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="18">
-        <f t="shared" si="1"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="4">
+        <f>SUM(C32)</f>
         <v>0</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="37"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="14"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="37"/>
+      <c r="K30" s="24"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="37"/>
+      <c r="M30" s="24"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="37"/>
+      <c r="O30" s="24"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="37"/>
+      <c r="S30" s="24"/>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="W30" s="37"/>
+      <c r="W30" s="24"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="38"/>
-      <c r="AI30" s="37"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="24"/>
       <c r="AJ30" s="14"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="15"/>
-      <c r="AM30" s="37"/>
+      <c r="AM30" s="24"/>
       <c r="AN30" s="14"/>
       <c r="AO30" s="15"/>
       <c r="AP30" s="15"/>
-      <c r="AQ30" s="37"/>
+      <c r="AQ30" s="24"/>
       <c r="AR30" s="14"/>
       <c r="AS30" s="15"/>
       <c r="AT30" s="15"/>
-      <c r="AU30" s="37"/>
+      <c r="AU30" s="24"/>
       <c r="AV30" s="14"/>
       <c r="AW30" s="15"/>
       <c r="AX30" s="15"/>
-      <c r="AY30" s="37"/>
+      <c r="AY30" s="24"/>
       <c r="AZ30" s="14"/>
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
-      <c r="BC30" s="37"/>
+      <c r="BC30" s="24"/>
     </row>
     <row r="31" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="3">
-        <f t="shared" ref="C31:C32" si="4">SUM(C33,C35)</f>
+      <c r="A31" s="40">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="6">
         <v>8</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16"/>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="10"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="13"/>
-      <c r="AQ31" s="10"/>
-      <c r="AR31" s="34"/>
-      <c r="AS31" s="35"/>
-      <c r="AT31" s="35"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="9"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="10"/>
-      <c r="AZ31" s="9"/>
-      <c r="BA31" s="13"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="10"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="14"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="24"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="24"/>
+      <c r="AZ31" s="14"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="24"/>
     </row>
     <row r="32" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="4">
-        <f t="shared" si="4"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="37"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="37"/>
+      <c r="K32" s="24"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="37"/>
+      <c r="M32" s="24"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="37"/>
+      <c r="O32" s="24"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
-      <c r="S32" s="37"/>
+      <c r="S32" s="24"/>
       <c r="T32" s="14"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
-      <c r="W32" s="37"/>
+      <c r="W32" s="24"/>
       <c r="X32" s="14"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="37"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="24"/>
       <c r="AJ32" s="14"/>
       <c r="AK32" s="15"/>
       <c r="AL32" s="15"/>
-      <c r="AM32" s="37"/>
+      <c r="AM32" s="24"/>
       <c r="AN32" s="14"/>
       <c r="AO32" s="15"/>
       <c r="AP32" s="15"/>
-      <c r="AQ32" s="37"/>
+      <c r="AQ32" s="24"/>
       <c r="AR32" s="14"/>
       <c r="AS32" s="15"/>
       <c r="AT32" s="15"/>
-      <c r="AU32" s="37"/>
+      <c r="AU32" s="24"/>
       <c r="AV32" s="14"/>
       <c r="AW32" s="15"/>
       <c r="AX32" s="15"/>
-      <c r="AY32" s="37"/>
+      <c r="AY32" s="24"/>
       <c r="AZ32" s="14"/>
       <c r="BA32" s="15"/>
       <c r="BB32" s="15"/>
-      <c r="BC32" s="37"/>
+      <c r="BC32" s="24"/>
     </row>
     <row r="33" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
-        <v>11</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="6">
-        <v>7</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="38"/>
-      <c r="AH33" s="38"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="15"/>
-      <c r="AL33" s="15"/>
-      <c r="AM33" s="37"/>
-      <c r="AN33" s="14"/>
-      <c r="AO33" s="15"/>
-      <c r="AP33" s="15"/>
-      <c r="AQ33" s="37"/>
-      <c r="AR33" s="39"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="14"/>
-      <c r="AW33" s="15"/>
-      <c r="AX33" s="15"/>
-      <c r="AY33" s="37"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="15"/>
-      <c r="BB33" s="15"/>
-      <c r="BC33" s="37"/>
+      <c r="A33" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:C34" si="4">SUM(C35,C37)</f>
+        <v>8</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="21"/>
+      <c r="AS33" s="22"/>
+      <c r="AT33" s="22"/>
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="13"/>
+      <c r="AX33" s="13"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="13"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="10"/>
     </row>
     <row r="34" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="18">
-        <f t="shared" ref="C34:C36" si="5">SUM(D34:BC34)</f>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="37"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="14"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="37"/>
+      <c r="K34" s="24"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="37"/>
+      <c r="M34" s="24"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="37"/>
+      <c r="O34" s="24"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
-      <c r="S34" s="37"/>
+      <c r="S34" s="24"/>
       <c r="T34" s="14"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
-      <c r="W34" s="37"/>
+      <c r="W34" s="24"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="37"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="24"/>
       <c r="AJ34" s="14"/>
       <c r="AK34" s="15"/>
       <c r="AL34" s="15"/>
-      <c r="AM34" s="37"/>
+      <c r="AM34" s="24"/>
       <c r="AN34" s="14"/>
       <c r="AO34" s="15"/>
       <c r="AP34" s="15"/>
-      <c r="AQ34" s="37"/>
+      <c r="AQ34" s="24"/>
       <c r="AR34" s="14"/>
       <c r="AS34" s="15"/>
       <c r="AT34" s="15"/>
-      <c r="AU34" s="37"/>
+      <c r="AU34" s="24"/>
       <c r="AV34" s="14"/>
       <c r="AW34" s="15"/>
       <c r="AX34" s="15"/>
-      <c r="AY34" s="37"/>
+      <c r="AY34" s="24"/>
       <c r="AZ34" s="14"/>
       <c r="BA34" s="15"/>
       <c r="BB34" s="15"/>
-      <c r="BC34" s="37"/>
+      <c r="BC34" s="24"/>
     </row>
     <row r="35" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
-        <v>12</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>49</v>
+      <c r="A35" s="40">
+        <v>11</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="C35" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="37"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="37"/>
+      <c r="K35" s="24"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="37"/>
+      <c r="M35" s="24"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="37"/>
+      <c r="O35" s="24"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
-      <c r="S35" s="37"/>
+      <c r="S35" s="24"/>
       <c r="T35" s="14"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="37"/>
+      <c r="W35" s="24"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="38"/>
-      <c r="AG35" s="38"/>
-      <c r="AH35" s="38"/>
-      <c r="AI35" s="37"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="24"/>
       <c r="AJ35" s="14"/>
       <c r="AK35" s="15"/>
       <c r="AL35" s="15"/>
-      <c r="AM35" s="37"/>
+      <c r="AM35" s="24"/>
       <c r="AN35" s="14"/>
       <c r="AO35" s="15"/>
       <c r="AP35" s="15"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="14"/>
-      <c r="AS35" s="15"/>
-      <c r="AT35" s="15"/>
-      <c r="AU35" s="49"/>
+      <c r="AQ35" s="24"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="27"/>
+      <c r="AT35" s="27"/>
+      <c r="AU35" s="33"/>
       <c r="AV35" s="14"/>
       <c r="AW35" s="15"/>
       <c r="AX35" s="15"/>
-      <c r="AY35" s="37"/>
+      <c r="AY35" s="24"/>
       <c r="AZ35" s="14"/>
       <c r="BA35" s="15"/>
       <c r="BB35" s="15"/>
-      <c r="BC35" s="37"/>
+      <c r="BC35" s="24"/>
     </row>
     <row r="36" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="18">
+        <f t="shared" ref="C36:C38" si="5">SUM(D36:BC36)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="24"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="24"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="24"/>
+      <c r="AZ36" s="14"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="24"/>
+    </row>
+    <row r="37" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40">
+        <v>12</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="15"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="15"/>
+      <c r="AP37" s="15"/>
+      <c r="AQ37" s="24"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="15"/>
+      <c r="AT37" s="15"/>
+      <c r="AU37" s="33"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="15"/>
+      <c r="AX37" s="15"/>
+      <c r="AY37" s="24"/>
+      <c r="AZ37" s="14"/>
+      <c r="BA37" s="15"/>
+      <c r="BB37" s="15"/>
+      <c r="BC37" s="24"/>
+    </row>
+    <row r="38" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="12"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="42"/>
-      <c r="AL36" s="42"/>
-      <c r="AM36" s="12"/>
-      <c r="AN36" s="11"/>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="12"/>
-      <c r="AR36" s="11"/>
-      <c r="AS36" s="42"/>
-      <c r="AT36" s="42"/>
-      <c r="AU36" s="12"/>
-      <c r="AV36" s="11"/>
-      <c r="AW36" s="42"/>
-      <c r="AX36" s="42"/>
-      <c r="AY36" s="12"/>
-      <c r="AZ36" s="11"/>
-      <c r="BA36" s="42"/>
-      <c r="BB36" s="42"/>
-      <c r="BC36" s="12"/>
-    </row>
-    <row r="37" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="3">
-        <f>SUM(C39,C43,C41)</f>
+      <c r="D38" s="11"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="28"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="28"/>
+      <c r="AT38" s="28"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="28"/>
+      <c r="AX38" s="28"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="11"/>
+      <c r="BA38" s="28"/>
+      <c r="BB38" s="28"/>
+      <c r="BC38" s="12"/>
+    </row>
+    <row r="39" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="3">
+        <f>SUM(C41,C45,C43)</f>
         <v>25</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="16"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="9"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="13"/>
-      <c r="AM37" s="10"/>
-      <c r="AN37" s="9"/>
-      <c r="AO37" s="13"/>
-      <c r="AP37" s="13"/>
-      <c r="AQ37" s="10"/>
-      <c r="AR37" s="9"/>
-      <c r="AS37" s="13"/>
-      <c r="AT37" s="13"/>
-      <c r="AU37" s="10"/>
-      <c r="AV37" s="9"/>
-      <c r="AW37" s="13"/>
-      <c r="AX37" s="13"/>
-      <c r="AY37" s="10"/>
-      <c r="AZ37" s="9"/>
-      <c r="BA37" s="13"/>
-      <c r="BB37" s="13"/>
-      <c r="BC37" s="10"/>
-    </row>
-    <row r="38" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="4">
-        <f>SUM(C40,C42,C44)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="38"/>
-      <c r="AH38" s="38"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="15"/>
-      <c r="AL38" s="15"/>
-      <c r="AM38" s="37"/>
-      <c r="AN38" s="14"/>
-      <c r="AO38" s="15"/>
-      <c r="AP38" s="15"/>
-      <c r="AQ38" s="37"/>
-      <c r="AR38" s="14"/>
-      <c r="AS38" s="15"/>
-      <c r="AT38" s="15"/>
-      <c r="AU38" s="37"/>
-      <c r="AV38" s="14"/>
-      <c r="AW38" s="15"/>
-      <c r="AX38" s="15"/>
-      <c r="AY38" s="37"/>
-      <c r="AZ38" s="14"/>
-      <c r="BA38" s="15"/>
-      <c r="BB38" s="15"/>
-      <c r="BC38" s="37"/>
-    </row>
-    <row r="39" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="6">
-        <v>16</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="38"/>
-      <c r="AG39" s="38"/>
-      <c r="AH39" s="38"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="49"/>
-      <c r="AN39" s="14"/>
-      <c r="AO39" s="15"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="49"/>
-      <c r="AR39" s="57"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="51"/>
-      <c r="AV39" s="39"/>
-      <c r="AW39" s="41"/>
-      <c r="AX39" s="41"/>
-      <c r="AY39" s="49"/>
-      <c r="AZ39" s="39"/>
-      <c r="BA39" s="41"/>
-      <c r="BB39" s="41"/>
-      <c r="BC39" s="49"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="10"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="13"/>
+      <c r="AT39" s="13"/>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="13"/>
+      <c r="AX39" s="13"/>
+      <c r="AY39" s="10"/>
+      <c r="AZ39" s="9"/>
+      <c r="BA39" s="13"/>
+      <c r="BB39" s="13"/>
+      <c r="BC39" s="10"/>
     </row>
     <row r="40" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="4">
+        <f>SUM(C42,C44,C46)</f>
+        <v>2</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="37"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="37"/>
+      <c r="K40" s="24"/>
       <c r="L40" s="14"/>
-      <c r="M40" s="37"/>
+      <c r="M40" s="24"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="37"/>
+      <c r="O40" s="24"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
-      <c r="S40" s="37"/>
+      <c r="S40" s="24"/>
       <c r="T40" s="14"/>
       <c r="U40" s="15"/>
       <c r="V40" s="15"/>
-      <c r="W40" s="37"/>
+      <c r="W40" s="24"/>
       <c r="X40" s="14"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="37"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="24"/>
       <c r="AJ40" s="14"/>
       <c r="AK40" s="15"/>
       <c r="AL40" s="15"/>
-      <c r="AM40" s="37"/>
+      <c r="AM40" s="24"/>
       <c r="AN40" s="14"/>
       <c r="AO40" s="15"/>
       <c r="AP40" s="15"/>
-      <c r="AQ40" s="37"/>
+      <c r="AQ40" s="24"/>
       <c r="AR40" s="14"/>
       <c r="AS40" s="15"/>
       <c r="AT40" s="15"/>
-      <c r="AU40" s="37"/>
+      <c r="AU40" s="24"/>
       <c r="AV40" s="14"/>
       <c r="AW40" s="15"/>
       <c r="AX40" s="15"/>
-      <c r="AY40" s="37"/>
+      <c r="AY40" s="24"/>
       <c r="AZ40" s="14"/>
       <c r="BA40" s="15"/>
       <c r="BB40" s="15"/>
-      <c r="BC40" s="37"/>
+      <c r="BC40" s="24"/>
     </row>
     <row r="41" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>51</v>
+      <c r="A41" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>48</v>
       </c>
       <c r="C41" s="6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="49"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="49"/>
+      <c r="K41" s="24"/>
       <c r="L41" s="14"/>
-      <c r="M41" s="37"/>
+      <c r="M41" s="24"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="37"/>
+      <c r="O41" s="24"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
-      <c r="S41" s="49"/>
+      <c r="S41" s="33"/>
       <c r="T41" s="14"/>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
-      <c r="W41" s="49"/>
+      <c r="W41" s="33"/>
       <c r="X41" s="14"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
-      <c r="AA41" s="49"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="38"/>
-      <c r="AG41" s="38"/>
-      <c r="AH41" s="38"/>
-      <c r="AI41" s="37"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="24"/>
       <c r="AJ41" s="14"/>
       <c r="AK41" s="15"/>
       <c r="AL41" s="15"/>
-      <c r="AM41" s="49"/>
+      <c r="AM41" s="33"/>
       <c r="AN41" s="14"/>
       <c r="AO41" s="15"/>
       <c r="AP41" s="15"/>
-      <c r="AQ41" s="49"/>
+      <c r="AQ41" s="33"/>
       <c r="AR41" s="14"/>
       <c r="AS41" s="15"/>
       <c r="AT41" s="15"/>
-      <c r="AU41" s="49"/>
-      <c r="AV41" s="14"/>
-      <c r="AW41" s="15"/>
-      <c r="AX41" s="15"/>
-      <c r="AY41" s="49"/>
-      <c r="AZ41" s="14"/>
-      <c r="BA41" s="15"/>
-      <c r="BB41" s="41"/>
-      <c r="BC41" s="37"/>
+      <c r="AU41" s="24"/>
+      <c r="AV41" s="26"/>
+      <c r="AW41" s="27"/>
+      <c r="AX41" s="27"/>
+      <c r="AY41" s="33"/>
+      <c r="AZ41" s="26"/>
+      <c r="BA41" s="27"/>
+      <c r="BB41" s="27"/>
+      <c r="BC41" s="33"/>
     </row>
     <row r="42" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="18">
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="50"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="14"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="37"/>
+      <c r="K42" s="24"/>
       <c r="L42" s="14"/>
-      <c r="M42" s="37"/>
+      <c r="M42" s="24"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="37"/>
+      <c r="O42" s="24"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
-      <c r="S42" s="37"/>
+      <c r="S42" s="24"/>
       <c r="T42" s="14"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
-      <c r="W42" s="37"/>
+      <c r="W42" s="24"/>
       <c r="X42" s="14"/>
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
-      <c r="AA42" s="37"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="37"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="24"/>
       <c r="AJ42" s="14"/>
       <c r="AK42" s="15"/>
       <c r="AL42" s="15"/>
-      <c r="AM42" s="37"/>
+      <c r="AM42" s="24"/>
       <c r="AN42" s="14"/>
       <c r="AO42" s="15"/>
       <c r="AP42" s="15"/>
-      <c r="AQ42" s="37"/>
+      <c r="AQ42" s="24"/>
       <c r="AR42" s="14"/>
       <c r="AS42" s="15"/>
       <c r="AT42" s="15"/>
-      <c r="AU42" s="37"/>
+      <c r="AU42" s="24"/>
       <c r="AV42" s="14"/>
       <c r="AW42" s="15"/>
       <c r="AX42" s="15"/>
-      <c r="AY42" s="37"/>
+      <c r="AY42" s="24"/>
       <c r="AZ42" s="14"/>
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
-      <c r="BC42" s="37"/>
+      <c r="BC42" s="24"/>
     </row>
     <row r="43" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>55</v>
+      <c r="A43" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="C43" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="51"/>
+      <c r="G43" s="33"/>
       <c r="H43" s="14"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="49"/>
+      <c r="K43" s="33"/>
       <c r="L43" s="14"/>
-      <c r="M43" s="37"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="37"/>
+      <c r="O43" s="24"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
-      <c r="S43" s="37"/>
+      <c r="S43" s="33"/>
       <c r="T43" s="14"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
-      <c r="W43" s="37"/>
+      <c r="W43" s="33"/>
       <c r="X43" s="14"/>
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
-      <c r="AA43" s="37"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="38"/>
-      <c r="AG43" s="38"/>
-      <c r="AH43" s="38"/>
-      <c r="AI43" s="37"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="24"/>
       <c r="AJ43" s="14"/>
       <c r="AK43" s="15"/>
       <c r="AL43" s="15"/>
-      <c r="AM43" s="37"/>
+      <c r="AM43" s="33"/>
       <c r="AN43" s="14"/>
       <c r="AO43" s="15"/>
       <c r="AP43" s="15"/>
-      <c r="AQ43" s="37"/>
+      <c r="AQ43" s="33"/>
       <c r="AR43" s="14"/>
       <c r="AS43" s="15"/>
       <c r="AT43" s="15"/>
-      <c r="AU43" s="37"/>
+      <c r="AU43" s="33"/>
       <c r="AV43" s="14"/>
       <c r="AW43" s="15"/>
       <c r="AX43" s="15"/>
-      <c r="AY43" s="37"/>
+      <c r="AY43" s="33"/>
       <c r="AZ43" s="14"/>
       <c r="BA43" s="15"/>
-      <c r="BB43" s="15"/>
-      <c r="BC43" s="37"/>
+      <c r="BB43" s="27"/>
+      <c r="BC43" s="24"/>
     </row>
     <row r="44" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="18">
-        <f>SUM(D44:BC44)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="17"/>
-      <c r="AG44" s="17"/>
-      <c r="AH44" s="17"/>
-      <c r="AI44" s="12"/>
-      <c r="AJ44" s="11"/>
-      <c r="AK44" s="42"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="12"/>
-      <c r="AN44" s="11"/>
-      <c r="AO44" s="42"/>
-      <c r="AP44" s="42"/>
-      <c r="AQ44" s="12"/>
-      <c r="AR44" s="11"/>
-      <c r="AS44" s="42"/>
-      <c r="AT44" s="42"/>
-      <c r="AU44" s="12"/>
-      <c r="AV44" s="11"/>
-      <c r="AW44" s="42"/>
-      <c r="AX44" s="42"/>
-      <c r="AY44" s="12"/>
-      <c r="AZ44" s="11"/>
-      <c r="BA44" s="42"/>
-      <c r="BB44" s="42"/>
-      <c r="BC44" s="12"/>
-    </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="24"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="14"/>
+      <c r="AO44" s="15"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="24"/>
+      <c r="AR44" s="14"/>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="24"/>
+      <c r="AV44" s="14"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="24"/>
+      <c r="AZ44" s="14"/>
+      <c r="BA44" s="15"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="24"/>
+    </row>
+    <row r="45" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="6">
+        <v>4</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="24"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="23"/>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="24"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="15"/>
+      <c r="AM45" s="24"/>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="15"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="24"/>
+      <c r="AR45" s="14"/>
+      <c r="AS45" s="15"/>
+      <c r="AT45" s="15"/>
+      <c r="AU45" s="24"/>
+      <c r="AV45" s="14"/>
+      <c r="AW45" s="15"/>
+      <c r="AX45" s="15"/>
+      <c r="AY45" s="33"/>
+      <c r="AZ45" s="14"/>
+      <c r="BA45" s="15"/>
+      <c r="BB45" s="15"/>
+      <c r="BC45" s="24"/>
+    </row>
+    <row r="46" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="18">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="11"/>
+      <c r="AO46" s="28"/>
+      <c r="AP46" s="28"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="11"/>
+      <c r="AS46" s="28"/>
+      <c r="AT46" s="28"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="11"/>
+      <c r="AW46" s="28"/>
+      <c r="AX46" s="28"/>
+      <c r="AY46" s="12"/>
+      <c r="AZ46" s="11"/>
+      <c r="BA46" s="28"/>
+      <c r="BB46" s="28"/>
+      <c r="BC46" s="12"/>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="19">
+        <f>SUM(C3,C9,C13,C21,C29,C39)</f>
+        <v>79</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+      <c r="AS47" s="5"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30">
-        <f>SUM(C3,C9,C13,C21,C27,C37)</f>
-        <v>47</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
-      <c r="AS45" s="5"/>
-      <c r="AT45" s="5"/>
-      <c r="AU45" s="5"/>
-      <c r="AV45" s="5"/>
-      <c r="AW45" s="5"/>
-      <c r="AX45" s="5"/>
-      <c r="AY45" s="5"/>
-    </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33">
-        <f>SUM(C4,C10,C14,C22,C28,C38)</f>
-        <v>8.5</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
-      <c r="AR46" s="5"/>
-      <c r="AS46" s="5"/>
-      <c r="AT46" s="5"/>
-      <c r="AU46" s="5"/>
-      <c r="AV46" s="5"/>
-      <c r="AW46" s="5"/>
-      <c r="AX46" s="5"/>
-      <c r="AY46" s="5"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="20">
+        <f>SUM(C4,C10,C14,C22,C30,C40)</f>
+        <v>16</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
+  <mergeCells count="65">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
@@ -4445,19 +4601,42 @@
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IPA Zeitplan.xlsx
+++ b/IPA Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wppcloud-my.sharepoint.com/personal/hunter_wilson_wundermanthompson_com/Documents/IPA Documentation/HW-IPA-Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A5AA07-7DA7-44AD-BD9B-E215D3B45A85}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B7CAE8A-5E3C-47E7-BF15-EAB3398183CC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
   </bookViews>
@@ -537,6 +537,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,12 +567,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,22 +579,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,10 +593,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFC7C3"/>
       <color rgb="FFF9D0C9"/>
       <color rgb="FFECD8D6"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
@@ -879,8 +879,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11979965" y="3140765"/>
-          <a:ext cx="339101" cy="447600"/>
+          <a:off x="12097342" y="3192827"/>
+          <a:ext cx="341940" cy="737728"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F2261-3027-4CFE-88E9-EDFC4439F1C6}">
   <dimension ref="A1:BC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1607,78 +1607,78 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="46" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="46" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="46" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="46" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="46" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="48"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="39"/>
+      <c r="AF1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="46" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="46" t="s">
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="46" t="s">
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="46" t="s">
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="46" t="s">
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="48"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="39"/>
     </row>
     <row r="2" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
@@ -1686,84 +1686,84 @@
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="46" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="46" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="46" t="s">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="46" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="48"/>
-      <c r="AF2" s="46" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="39"/>
+      <c r="AF2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="46" t="s">
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="46" t="s">
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="46" t="s">
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="46" t="s">
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="46" t="s">
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="48"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="39"/>
     </row>
     <row r="3" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="3">
         <f>SUM(C5,C7)</f>
         <v>4</v>
@@ -1822,8 +1822,8 @@
       <c r="BC3" s="10"/>
     </row>
     <row r="4" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="4">
         <f>SUM(C6,C8)</f>
         <v>4</v>
@@ -2126,10 +2126,10 @@
       <c r="BC8" s="12"/>
     </row>
     <row r="9" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="3">
         <f>SUM(C11)</f>
         <v>4</v>
@@ -2188,8 +2188,8 @@
       <c r="BC9" s="10"/>
     </row>
     <row r="10" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="4">
         <f>SUM(C12)</f>
         <v>4</v>
@@ -2370,13 +2370,13 @@
       <c r="BC12" s="24"/>
     </row>
     <row r="13" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="3">
         <f>SUM(C15,C17,C19)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="13"/>
@@ -2432,11 +2432,11 @@
       <c r="BC13" s="10"/>
     </row>
     <row r="14" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="4">
         <f t="shared" ref="C14" si="0">SUM(C16,C18)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
@@ -2621,7 +2621,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -2635,8 +2635,8 @@
       <c r="M17" s="24"/>
       <c r="N17" s="15"/>
       <c r="O17" s="24"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="50"/>
       <c r="R17" s="15"/>
       <c r="S17" s="24"/>
       <c r="T17" s="14"/>
@@ -2680,7 +2680,7 @@
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
@@ -2694,7 +2694,7 @@
       <c r="M18" s="24"/>
       <c r="N18" s="15"/>
       <c r="O18" s="24"/>
-      <c r="P18" s="14"/>
+      <c r="P18" s="29"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="24"/>
@@ -2736,7 +2736,7 @@
       <c r="BC18" s="24"/>
     </row>
     <row r="19" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+      <c r="A19" s="42">
         <v>2.2999999999999998</v>
       </c>
       <c r="B19" s="40" t="s">
@@ -2799,7 +2799,7 @@
       <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="41"/>
       <c r="C20" s="18">
         <v>1</v>
@@ -2858,10 +2858,10 @@
       <c r="BC20" s="12"/>
     </row>
     <row r="21" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="3">
         <v>32</v>
       </c>
@@ -2919,11 +2919,11 @@
       <c r="BC21" s="10"/>
     </row>
     <row r="22" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="4">
         <f t="shared" ref="C22" si="1">SUM(C24,C28)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
@@ -2937,10 +2937,10 @@
       <c r="M22" s="24"/>
       <c r="N22" s="15"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="24"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="34"/>
       <c r="T22" s="14"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="23" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>54</v>
@@ -3005,8 +3005,8 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="33"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="50"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="24"/>
       <c r="X23" s="14"/>
@@ -3046,8 +3046,7 @@
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="18">
-        <f t="shared" ref="C18:C42" si="3">SUM(D24:BC24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
@@ -3061,10 +3060,10 @@
       <c r="M24" s="24"/>
       <c r="N24" s="15"/>
       <c r="O24" s="24"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="24"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="34"/>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
@@ -3104,7 +3103,7 @@
     </row>
     <row r="25" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>55</v>
@@ -3170,7 +3169,7 @@
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C24:C42" si="3">SUM(D26:BC26)</f>
         <v>0</v>
       </c>
       <c r="D26" s="14"/>
@@ -3228,7 +3227,7 @@
     </row>
     <row r="27" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>56</v>
@@ -3351,10 +3350,10 @@
       <c r="BC28" s="12"/>
     </row>
     <row r="29" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="3">
         <f>SUM(C31)</f>
         <v>8</v>
@@ -3413,8 +3412,8 @@
       <c r="BC29" s="10"/>
     </row>
     <row r="30" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="4">
         <f>SUM(C32)</f>
         <v>0</v>
@@ -3596,10 +3595,10 @@
       <c r="BC32" s="24"/>
     </row>
     <row r="33" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="37"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="3">
         <f t="shared" ref="C33:C34" si="4">SUM(C35,C37)</f>
         <v>8</v>
@@ -3658,8 +3657,8 @@
       <c r="BC33" s="10"/>
     </row>
     <row r="34" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3719,7 +3718,7 @@
     </row>
     <row r="35" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>11</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>46</v>
@@ -3842,7 +3841,7 @@
     </row>
     <row r="37" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="B37" s="40" t="s">
         <v>47</v>
@@ -3964,10 +3963,10 @@
       <c r="BC38" s="12"/>
     </row>
     <row r="39" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="37"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="3">
         <f>SUM(C41,C45,C43)</f>
         <v>25</v>
@@ -4026,11 +4025,11 @@
       <c r="BC39" s="10"/>
     </row>
     <row r="40" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="4">
         <f>SUM(C42,C44,C46)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
@@ -4152,8 +4151,7 @@
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
@@ -4167,9 +4165,9 @@
       <c r="M42" s="24"/>
       <c r="N42" s="15"/>
       <c r="O42" s="24"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="50"/>
       <c r="S42" s="24"/>
       <c r="T42" s="14"/>
       <c r="U42" s="15"/>
@@ -4406,7 +4404,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
-      <c r="K46" s="51"/>
+      <c r="K46" s="36"/>
       <c r="L46" s="11"/>
       <c r="M46" s="12"/>
       <c r="N46" s="28"/>
@@ -4453,13 +4451,13 @@
       <c r="BC46" s="12"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="43"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="19">
         <f>SUM(C3,C9,C13,C21,C29,C39)</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>35</v>
@@ -4513,13 +4511,13 @@
       <c r="AY47" s="5"/>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="45"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="20">
         <f>SUM(C4,C10,C14,C22,C30,C40)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
@@ -4572,19 +4570,42 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
@@ -4601,42 +4622,19 @@
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IPA Zeitplan.xlsx
+++ b/IPA Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wppcloud-my.sharepoint.com/personal/hunter_wilson_wundermanthompson_com/Documents/IPA Documentation/HW-IPA-Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B7CAE8A-5E3C-47E7-BF15-EAB3398183CC}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF64700C-8AED-43DE-830E-7382BA1FDD70}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
   </bookViews>
@@ -540,6 +540,36 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,36 +577,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -593,11 +593,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFC7C3"/>
       <color rgb="FFF9D0C9"/>
       <color rgb="FFECD8D6"/>
-      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F2261-3027-4CFE-88E9-EDFC4439F1C6}">
   <dimension ref="A1:BC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1598,172 +1598,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="37" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="37" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="37" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="37" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="37" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="39"/>
-      <c r="AF1" s="37" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="49"/>
+      <c r="AF1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="37" t="s">
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="37" t="s">
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="37" t="s">
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="37" t="s">
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="37" t="s">
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="39"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="49"/>
     </row>
     <row r="2" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="37" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="37" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="37" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="37" t="s">
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="37" t="s">
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="39"/>
-      <c r="AF2" s="37" t="s">
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="49"/>
+      <c r="AF2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="37" t="s">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="37" t="s">
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="37" t="s">
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="37" t="s">
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="37" t="s">
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="39"/>
+      <c r="BA2" s="48"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="49"/>
     </row>
     <row r="3" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="3">
         <f>SUM(C5,C7)</f>
         <v>4</v>
@@ -1822,8 +1822,8 @@
       <c r="BC3" s="10"/>
     </row>
     <row r="4" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="4">
         <f>SUM(C6,C8)</f>
         <v>4</v>
@@ -1882,10 +1882,10 @@
       <c r="BC4" s="24"/>
     </row>
     <row r="5" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="6">
@@ -1945,8 +1945,8 @@
       <c r="BC5" s="24"/>
     </row>
     <row r="6" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="18">
         <v>2</v>
       </c>
@@ -2004,10 +2004,10 @@
       <c r="BC6" s="24"/>
     </row>
     <row r="7" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="6">
@@ -2067,8 +2067,8 @@
       <c r="BC7" s="24"/>
     </row>
     <row r="8" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="18">
         <v>2</v>
       </c>
@@ -2126,10 +2126,10 @@
       <c r="BC8" s="12"/>
     </row>
     <row r="9" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="3">
         <f>SUM(C11)</f>
         <v>4</v>
@@ -2188,8 +2188,8 @@
       <c r="BC9" s="10"/>
     </row>
     <row r="10" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="4">
         <f>SUM(C12)</f>
         <v>4</v>
@@ -2248,10 +2248,10 @@
       <c r="BC10" s="24"/>
     </row>
     <row r="11" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
+      <c r="A11" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="37" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="6">
@@ -2311,8 +2311,8 @@
       <c r="BC11" s="24"/>
     </row>
     <row r="12" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="18">
         <v>4</v>
       </c>
@@ -2370,10 +2370,10 @@
       <c r="BC12" s="24"/>
     </row>
     <row r="13" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="3">
         <f>SUM(C15,C17,C19)</f>
         <v>8</v>
@@ -2432,8 +2432,8 @@
       <c r="BC13" s="10"/>
     </row>
     <row r="14" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="4">
         <f t="shared" ref="C14" si="0">SUM(C16,C18)</f>
         <v>8</v>
@@ -2492,10 +2492,10 @@
       <c r="BC14" s="24"/>
     </row>
     <row r="15" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+      <c r="A15" s="37">
         <v>2.1</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="6">
@@ -2555,8 +2555,8 @@
       <c r="BC15" s="24"/>
     </row>
     <row r="16" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="18">
         <v>1</v>
       </c>
@@ -2614,10 +2614,10 @@
       <c r="BC16" s="24"/>
     </row>
     <row r="17" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+      <c r="A17" s="37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6">
@@ -2636,7 +2636,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="24"/>
       <c r="P17" s="26"/>
-      <c r="Q17" s="50"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="24"/>
       <c r="T17" s="14"/>
@@ -2677,8 +2677,8 @@
       <c r="BC17" s="24"/>
     </row>
     <row r="18" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="18">
         <v>7</v>
       </c>
@@ -2736,10 +2736,10 @@
       <c r="BC18" s="24"/>
     </row>
     <row r="19" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+      <c r="A19" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="6">
@@ -2799,8 +2799,8 @@
       <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="18">
         <v>1</v>
       </c>
@@ -2858,11 +2858,12 @@
       <c r="BC20" s="12"/>
     </row>
     <row r="21" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="3">
+        <f>SUM(C23,C25,C27)</f>
         <v>32</v>
       </c>
       <c r="D21" s="9"/>
@@ -2919,11 +2920,11 @@
       <c r="BC21" s="10"/>
     </row>
     <row r="22" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="4">
         <f t="shared" ref="C22" si="1">SUM(C24,C28)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
@@ -2937,14 +2938,14 @@
       <c r="M22" s="24"/>
       <c r="N22" s="15"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="51"/>
+      <c r="P22" s="14"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="34"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="24"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="34"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
@@ -2979,15 +2980,14 @@
       <c r="BC22" s="24"/>
     </row>
     <row r="23" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40">
+      <c r="A23" s="37">
         <v>3.1</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ref="C23:C25" si="2">SUM(D23:BC23)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
@@ -3005,8 +3005,8 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="33"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="15"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="50"/>
       <c r="V23" s="15"/>
       <c r="W23" s="24"/>
       <c r="X23" s="14"/>
@@ -3043,10 +3043,10 @@
       <c r="BC23" s="24"/>
     </row>
     <row r="24" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
@@ -3060,12 +3060,12 @@
       <c r="M24" s="24"/>
       <c r="N24" s="15"/>
       <c r="O24" s="24"/>
-      <c r="P24" s="51"/>
+      <c r="P24" s="14"/>
       <c r="Q24" s="32"/>
       <c r="R24" s="32"/>
       <c r="S24" s="34"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="15"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="32"/>
       <c r="V24" s="15"/>
       <c r="W24" s="24"/>
       <c r="X24" s="14"/>
@@ -3102,15 +3102,14 @@
       <c r="BC24" s="24"/>
     </row>
     <row r="25" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40">
+      <c r="A25" s="37">
         <v>3.2</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
@@ -3166,11 +3165,10 @@
       <c r="BC25" s="24"/>
     </row>
     <row r="26" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="18">
-        <f t="shared" ref="C24:C42" si="3">SUM(D26:BC26)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
@@ -3190,8 +3188,8 @@
       <c r="S26" s="24"/>
       <c r="T26" s="14"/>
       <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="24"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="34"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
@@ -3226,15 +3224,14 @@
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40">
+      <c r="A27" s="37">
         <v>3.3</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
@@ -3290,10 +3287,10 @@
       <c r="BC27" s="24"/>
     </row>
     <row r="28" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C26:C32" si="2">SUM(D28:BC28)</f>
         <v>0</v>
       </c>
       <c r="D28" s="11"/>
@@ -3350,10 +3347,10 @@
       <c r="BC28" s="12"/>
     </row>
     <row r="29" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="3">
         <f>SUM(C31)</f>
         <v>8</v>
@@ -3412,8 +3409,8 @@
       <c r="BC29" s="10"/>
     </row>
     <row r="30" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="4">
         <f>SUM(C32)</f>
         <v>0</v>
@@ -3472,10 +3469,10 @@
       <c r="BC30" s="24"/>
     </row>
     <row r="31" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40">
+      <c r="A31" s="37">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="6">
@@ -3535,10 +3532,10 @@
       <c r="BC31" s="24"/>
     </row>
     <row r="32" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D32" s="14"/>
@@ -3595,12 +3592,12 @@
       <c r="BC32" s="24"/>
     </row>
     <row r="33" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="43"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:C34" si="4">SUM(C35,C37)</f>
+        <f t="shared" ref="C33:C34" si="3">SUM(C35,C37)</f>
         <v>8</v>
       </c>
       <c r="D33" s="9"/>
@@ -3657,10 +3654,10 @@
       <c r="BC33" s="10"/>
     </row>
     <row r="34" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D34" s="14"/>
@@ -3717,10 +3714,10 @@
       <c r="BC34" s="24"/>
     </row>
     <row r="35" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40">
+      <c r="A35" s="37">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="6">
@@ -3780,10 +3777,10 @@
       <c r="BC35" s="24"/>
     </row>
     <row r="36" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="18">
-        <f t="shared" ref="C36:C38" si="5">SUM(D36:BC36)</f>
+        <f t="shared" ref="C36:C38" si="4">SUM(D36:BC36)</f>
         <v>0</v>
       </c>
       <c r="D36" s="14"/>
@@ -3840,10 +3837,10 @@
       <c r="BC36" s="24"/>
     </row>
     <row r="37" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40">
+      <c r="A37" s="37">
         <v>5.2</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="6">
@@ -3903,10 +3900,10 @@
       <c r="BC37" s="24"/>
     </row>
     <row r="38" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D38" s="11"/>
@@ -3963,10 +3960,10 @@
       <c r="BC38" s="12"/>
     </row>
     <row r="39" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="3">
         <f>SUM(C41,C45,C43)</f>
         <v>25</v>
@@ -4025,11 +4022,11 @@
       <c r="BC39" s="10"/>
     </row>
     <row r="40" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="4">
         <f>SUM(C42,C44,C46)</f>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
@@ -4085,10 +4082,10 @@
       <c r="BC40" s="24"/>
     </row>
     <row r="41" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="6">
@@ -4111,7 +4108,7 @@
       <c r="R41" s="15"/>
       <c r="S41" s="33"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="15"/>
+      <c r="U41" s="50"/>
       <c r="V41" s="15"/>
       <c r="W41" s="33"/>
       <c r="X41" s="14"/>
@@ -4148,10 +4145,10 @@
       <c r="BC41" s="33"/>
     </row>
     <row r="42" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="18">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
@@ -4167,12 +4164,12 @@
       <c r="O42" s="24"/>
       <c r="P42" s="29"/>
       <c r="Q42" s="32"/>
-      <c r="R42" s="50"/>
+      <c r="R42" s="15"/>
       <c r="S42" s="24"/>
       <c r="T42" s="14"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="24"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="34"/>
       <c r="X42" s="14"/>
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
@@ -4207,10 +4204,10 @@
       <c r="BC42" s="24"/>
     </row>
     <row r="43" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="6">
@@ -4270,10 +4267,10 @@
       <c r="BC43" s="24"/>
     </row>
     <row r="44" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
@@ -4290,11 +4287,11 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
-      <c r="S44" s="24"/>
+      <c r="S44" s="34"/>
       <c r="T44" s="14"/>
       <c r="U44" s="15"/>
       <c r="V44" s="15"/>
-      <c r="W44" s="24"/>
+      <c r="W44" s="34"/>
       <c r="X44" s="14"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
@@ -4329,10 +4326,10 @@
       <c r="BC44" s="24"/>
     </row>
     <row r="45" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="6">
@@ -4392,8 +4389,8 @@
       <c r="BC45" s="24"/>
     </row>
     <row r="46" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="18">
         <v>1</v>
       </c>
@@ -4451,10 +4448,10 @@
       <c r="BC46" s="12"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="47"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="19">
         <f>SUM(C3,C9,C13,C21,C29,C39)</f>
         <v>81</v>
@@ -4511,13 +4508,13 @@
       <c r="AY47" s="5"/>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="49"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="20">
         <f>SUM(C4,C10,C14,C22,C30,C40)</f>
-        <v>24</v>
+        <v>32.5</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
@@ -4570,26 +4567,35 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="A13:B14"/>
@@ -4606,35 +4612,26 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AZ2:BC2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A33:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IPA Zeitplan.xlsx
+++ b/IPA Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wppcloud-my.sharepoint.com/personal/hunter_wilson_wundermanthompson_com/Documents/IPA Documentation/HW-IPA-Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF64700C-8AED-43DE-830E-7382BA1FDD70}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D429976A-5215-466D-B7CB-5BF46B948296}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
   </bookViews>
@@ -206,10 +206,10 @@
     <t>Anzeigen</t>
   </si>
   <si>
-    <t>Copy and Paste</t>
-  </si>
-  <si>
     <t>Integrationskonzept</t>
+  </si>
+  <si>
+    <t>Ansehen</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -540,6 +540,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,12 +558,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,19 +579,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,8 +602,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFC7C3"/>
       <color rgb="FFF9D0C9"/>
       <color rgb="FFECD8D6"/>
@@ -1586,7 +1595,7 @@
   <dimension ref="A1:BC48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1598,172 +1607,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="47" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="47" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="47" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="47" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="47" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="49"/>
-      <c r="AF1" s="47" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="39"/>
+      <c r="AF1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="47" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="47" t="s">
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="47" t="s">
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="47" t="s">
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="47" t="s">
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="49"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="39"/>
     </row>
     <row r="2" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="47" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="47" t="s">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="47" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="49"/>
-      <c r="AF2" s="47" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="39"/>
+      <c r="AF2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="47" t="s">
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="47" t="s">
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="47" t="s">
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="47" t="s">
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="47" t="s">
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="48"/>
-      <c r="BC2" s="49"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="39"/>
     </row>
     <row r="3" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="3">
         <f>SUM(C5,C7)</f>
         <v>4</v>
@@ -1822,8 +1831,8 @@
       <c r="BC3" s="10"/>
     </row>
     <row r="4" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="4">
         <f>SUM(C6,C8)</f>
         <v>4</v>
@@ -1882,10 +1891,10 @@
       <c r="BC4" s="24"/>
     </row>
     <row r="5" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="6">
@@ -1945,8 +1954,8 @@
       <c r="BC5" s="24"/>
     </row>
     <row r="6" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="18">
         <v>2</v>
       </c>
@@ -2004,10 +2013,10 @@
       <c r="BC6" s="24"/>
     </row>
     <row r="7" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="6">
@@ -2067,8 +2076,8 @@
       <c r="BC7" s="24"/>
     </row>
     <row r="8" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="18">
         <v>2</v>
       </c>
@@ -2126,10 +2135,10 @@
       <c r="BC8" s="12"/>
     </row>
     <row r="9" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="3">
         <f>SUM(C11)</f>
         <v>4</v>
@@ -2188,8 +2197,8 @@
       <c r="BC9" s="10"/>
     </row>
     <row r="10" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="4">
         <f>SUM(C12)</f>
         <v>4</v>
@@ -2248,10 +2257,10 @@
       <c r="BC10" s="24"/>
     </row>
     <row r="11" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37">
+      <c r="A11" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="6">
@@ -2311,8 +2320,8 @@
       <c r="BC11" s="24"/>
     </row>
     <row r="12" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="18">
         <v>4</v>
       </c>
@@ -2370,10 +2379,10 @@
       <c r="BC12" s="24"/>
     </row>
     <row r="13" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="3">
         <f>SUM(C15,C17,C19)</f>
         <v>8</v>
@@ -2432,8 +2441,8 @@
       <c r="BC13" s="10"/>
     </row>
     <row r="14" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="4">
         <f t="shared" ref="C14" si="0">SUM(C16,C18)</f>
         <v>8</v>
@@ -2492,10 +2501,10 @@
       <c r="BC14" s="24"/>
     </row>
     <row r="15" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37">
+      <c r="A15" s="40">
         <v>2.1</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="6">
@@ -2555,8 +2564,8 @@
       <c r="BC15" s="24"/>
     </row>
     <row r="16" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="18">
         <v>1</v>
       </c>
@@ -2614,10 +2623,10 @@
       <c r="BC16" s="24"/>
     </row>
     <row r="17" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37">
+      <c r="A17" s="40">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6">
@@ -2677,8 +2686,8 @@
       <c r="BC17" s="24"/>
     </row>
     <row r="18" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="18">
         <v>7</v>
       </c>
@@ -2736,11 +2745,11 @@
       <c r="BC18" s="24"/>
     </row>
     <row r="19" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39">
+      <c r="A19" s="42">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>57</v>
+      <c r="B19" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -2799,8 +2808,8 @@
       <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="18">
         <v>1</v>
       </c>
@@ -2858,10 +2867,10 @@
       <c r="BC20" s="12"/>
     </row>
     <row r="21" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="3">
         <f>SUM(C23,C25,C27)</f>
         <v>32</v>
@@ -2920,11 +2929,11 @@
       <c r="BC21" s="10"/>
     </row>
     <row r="22" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="4">
-        <f t="shared" ref="C22" si="1">SUM(C24,C28)</f>
-        <v>10</v>
+        <f>SUM(C24,C28)</f>
+        <v>11</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
@@ -2946,9 +2955,9 @@
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="34"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
       <c r="AA22" s="24"/>
       <c r="AB22" s="23"/>
       <c r="AC22" s="23"/>
@@ -2980,10 +2989,10 @@
       <c r="BC22" s="24"/>
     </row>
     <row r="23" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37">
+      <c r="A23" s="40">
         <v>3.1</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="40" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6">
@@ -3005,8 +3014,8 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="33"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="50"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="24"/>
       <c r="X23" s="14"/>
@@ -3043,8 +3052,8 @@
       <c r="BC23" s="24"/>
     </row>
     <row r="24" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="18">
         <v>10</v>
       </c>
@@ -3102,14 +3111,14 @@
       <c r="BC24" s="24"/>
     </row>
     <row r="25" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37">
+      <c r="A25" s="40">
         <v>3.2</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
@@ -3143,10 +3152,10 @@
       <c r="AG25" s="25"/>
       <c r="AH25" s="25"/>
       <c r="AI25" s="24"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="24"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="51"/>
       <c r="AN25" s="14"/>
       <c r="AO25" s="15"/>
       <c r="AP25" s="15"/>
@@ -3165,10 +3174,10 @@
       <c r="BC25" s="24"/>
     </row>
     <row r="26" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
@@ -3190,9 +3199,9 @@
       <c r="U26" s="15"/>
       <c r="V26" s="32"/>
       <c r="W26" s="34"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
       <c r="AA26" s="24"/>
       <c r="AB26" s="23"/>
       <c r="AC26" s="23"/>
@@ -3224,14 +3233,14 @@
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37">
+      <c r="A27" s="40">
         <v>3.3</v>
       </c>
-      <c r="B27" s="37" t="s">
-        <v>56</v>
+      <c r="B27" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="C27" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
@@ -3265,8 +3274,8 @@
       <c r="AG27" s="25"/>
       <c r="AH27" s="25"/>
       <c r="AI27" s="24"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="15"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="27"/>
       <c r="AL27" s="27"/>
       <c r="AM27" s="33"/>
       <c r="AN27" s="14"/>
@@ -3287,11 +3296,10 @@
       <c r="BC27" s="24"/>
     </row>
     <row r="28" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="18">
-        <f t="shared" ref="C26:C32" si="2">SUM(D28:BC28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28"/>
@@ -3313,10 +3321,10 @@
       <c r="U28" s="28"/>
       <c r="V28" s="28"/>
       <c r="W28" s="12"/>
-      <c r="X28" s="11"/>
+      <c r="X28" s="52"/>
       <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="12"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="36"/>
       <c r="AB28" s="23"/>
       <c r="AC28" s="23"/>
       <c r="AD28" s="23"/>
@@ -3347,10 +3355,10 @@
       <c r="BC28" s="12"/>
     </row>
     <row r="29" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="3">
         <f>SUM(C31)</f>
         <v>8</v>
@@ -3409,8 +3417,8 @@
       <c r="BC29" s="10"/>
     </row>
     <row r="30" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="4">
         <f>SUM(C32)</f>
         <v>0</v>
@@ -3469,10 +3477,10 @@
       <c r="BC30" s="24"/>
     </row>
     <row r="31" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37">
+      <c r="A31" s="40">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="40" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="6">
@@ -3532,10 +3540,10 @@
       <c r="BC31" s="24"/>
     </row>
     <row r="32" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C32" si="1">SUM(D32:BC32)</f>
         <v>0</v>
       </c>
       <c r="D32" s="14"/>
@@ -3592,12 +3600,12 @@
       <c r="BC32" s="24"/>
     </row>
     <row r="33" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="41"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:C34" si="3">SUM(C35,C37)</f>
+        <f t="shared" ref="C33:C34" si="2">SUM(C35,C37)</f>
         <v>8</v>
       </c>
       <c r="D33" s="9"/>
@@ -3654,10 +3662,10 @@
       <c r="BC33" s="10"/>
     </row>
     <row r="34" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D34" s="14"/>
@@ -3714,10 +3722,10 @@
       <c r="BC34" s="24"/>
     </row>
     <row r="35" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37">
+      <c r="A35" s="40">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="6">
@@ -3777,10 +3785,10 @@
       <c r="BC35" s="24"/>
     </row>
     <row r="36" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="18">
-        <f t="shared" ref="C36:C38" si="4">SUM(D36:BC36)</f>
+        <f t="shared" ref="C36:C38" si="3">SUM(D36:BC36)</f>
         <v>0</v>
       </c>
       <c r="D36" s="14"/>
@@ -3837,10 +3845,10 @@
       <c r="BC36" s="24"/>
     </row>
     <row r="37" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37">
+      <c r="A37" s="40">
         <v>5.2</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="6">
@@ -3900,10 +3908,10 @@
       <c r="BC37" s="24"/>
     </row>
     <row r="38" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D38" s="11"/>
@@ -3960,10 +3968,10 @@
       <c r="BC38" s="12"/>
     </row>
     <row r="39" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="41"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="3">
         <f>SUM(C41,C45,C43)</f>
         <v>25</v>
@@ -4022,11 +4030,11 @@
       <c r="BC39" s="10"/>
     </row>
     <row r="40" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="4">
         <f>SUM(C42,C44,C46)</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
@@ -4082,10 +4090,10 @@
       <c r="BC40" s="24"/>
     </row>
     <row r="41" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="40" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="6">
@@ -4108,7 +4116,7 @@
       <c r="R41" s="15"/>
       <c r="S41" s="33"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="50"/>
+      <c r="U41" s="15"/>
       <c r="V41" s="15"/>
       <c r="W41" s="33"/>
       <c r="X41" s="14"/>
@@ -4145,10 +4153,10 @@
       <c r="BC41" s="33"/>
     </row>
     <row r="42" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="18">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
@@ -4168,12 +4176,12 @@
       <c r="S42" s="24"/>
       <c r="T42" s="14"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="50"/>
+      <c r="V42" s="15"/>
       <c r="W42" s="34"/>
       <c r="X42" s="14"/>
       <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="24"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="51"/>
       <c r="AB42" s="23"/>
       <c r="AC42" s="23"/>
       <c r="AD42" s="23"/>
@@ -4204,10 +4212,10 @@
       <c r="BC42" s="24"/>
     </row>
     <row r="43" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="40" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="6">
@@ -4267,10 +4275,10 @@
       <c r="BC43" s="24"/>
     </row>
     <row r="44" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="18">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
@@ -4295,7 +4303,7 @@
       <c r="X44" s="14"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
-      <c r="AA44" s="24"/>
+      <c r="AA44" s="34"/>
       <c r="AB44" s="23"/>
       <c r="AC44" s="23"/>
       <c r="AD44" s="23"/>
@@ -4326,10 +4334,10 @@
       <c r="BC44" s="24"/>
     </row>
     <row r="45" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="6">
@@ -4389,8 +4397,8 @@
       <c r="BC45" s="24"/>
     </row>
     <row r="46" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="18">
         <v>1</v>
       </c>
@@ -4448,10 +4456,10 @@
       <c r="BC46" s="12"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="44"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="19">
         <f>SUM(C3,C9,C13,C21,C29,C39)</f>
         <v>81</v>
@@ -4508,13 +4516,13 @@
       <c r="AY47" s="5"/>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="46"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="20">
         <f>SUM(C4,C10,C14,C22,C30,C40)</f>
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
@@ -4567,19 +4575,42 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
@@ -4596,42 +4627,19 @@
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IPA Zeitplan.xlsx
+++ b/IPA Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wppcloud-my.sharepoint.com/personal/hunter_wilson_wundermanthompson_com/Documents/IPA Documentation/HW-IPA-Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D429976A-5215-466D-B7CB-5BF46B948296}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2D0A0C-A1F6-470E-BDBF-F0338F087A2B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -432,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -540,6 +541,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,21 +581,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,6 +1257,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>106344</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>157425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Arrow: Up 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA879BA-4854-4A86-8FDF-242E1F85C4B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10950190" y="2697144"/>
+          <a:ext cx="308989" cy="426218"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CH" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1594,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F2261-3027-4CFE-88E9-EDFC4439F1C6}">
   <dimension ref="A1:BC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1607,172 +1682,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="37" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="37" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="37" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="37" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="37" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="39"/>
-      <c r="AF1" s="37" t="s">
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="40"/>
+      <c r="AF1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="37" t="s">
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="37" t="s">
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="37" t="s">
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="37" t="s">
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="37" t="s">
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="40"/>
     </row>
     <row r="2" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="37" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="37" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="37" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="37" t="s">
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="37" t="s">
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="39"/>
-      <c r="AF2" s="37" t="s">
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="40"/>
+      <c r="AF2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="37" t="s">
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="37" t="s">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="37" t="s">
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="37" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="37" t="s">
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="40"/>
     </row>
     <row r="3" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="3">
         <f>SUM(C5,C7)</f>
         <v>4</v>
@@ -1831,8 +1906,8 @@
       <c r="BC3" s="10"/>
     </row>
     <row r="4" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="4">
         <f>SUM(C6,C8)</f>
         <v>4</v>
@@ -1891,10 +1966,10 @@
       <c r="BC4" s="24"/>
     </row>
     <row r="5" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="6">
@@ -1954,8 +2029,8 @@
       <c r="BC5" s="24"/>
     </row>
     <row r="6" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="18">
         <v>2</v>
       </c>
@@ -2013,10 +2088,10 @@
       <c r="BC6" s="24"/>
     </row>
     <row r="7" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="6">
@@ -2076,8 +2151,8 @@
       <c r="BC7" s="24"/>
     </row>
     <row r="8" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="18">
         <v>2</v>
       </c>
@@ -2135,10 +2210,10 @@
       <c r="BC8" s="12"/>
     </row>
     <row r="9" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="3">
         <f>SUM(C11)</f>
         <v>4</v>
@@ -2197,8 +2272,8 @@
       <c r="BC9" s="10"/>
     </row>
     <row r="10" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="4">
         <f>SUM(C12)</f>
         <v>4</v>
@@ -2257,10 +2332,10 @@
       <c r="BC10" s="24"/>
     </row>
     <row r="11" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
+      <c r="A11" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="6">
@@ -2320,8 +2395,8 @@
       <c r="BC11" s="24"/>
     </row>
     <row r="12" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="18">
         <v>4</v>
       </c>
@@ -2379,10 +2454,10 @@
       <c r="BC12" s="24"/>
     </row>
     <row r="13" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="3">
         <f>SUM(C15,C17,C19)</f>
         <v>8</v>
@@ -2441,8 +2516,8 @@
       <c r="BC13" s="10"/>
     </row>
     <row r="14" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="4">
         <f t="shared" ref="C14" si="0">SUM(C16,C18)</f>
         <v>8</v>
@@ -2501,10 +2576,10 @@
       <c r="BC14" s="24"/>
     </row>
     <row r="15" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+      <c r="A15" s="41">
         <v>2.1</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="6">
@@ -2564,8 +2639,8 @@
       <c r="BC15" s="24"/>
     </row>
     <row r="16" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="18">
         <v>1</v>
       </c>
@@ -2623,10 +2698,10 @@
       <c r="BC16" s="24"/>
     </row>
     <row r="17" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+      <c r="A17" s="41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6">
@@ -2686,8 +2761,8 @@
       <c r="BC17" s="24"/>
     </row>
     <row r="18" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="18">
         <v>7</v>
       </c>
@@ -2745,10 +2820,10 @@
       <c r="BC18" s="24"/>
     </row>
     <row r="19" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+      <c r="A19" s="43">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="6">
@@ -2808,8 +2883,8 @@
       <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="18">
         <v>1</v>
       </c>
@@ -2867,10 +2942,10 @@
       <c r="BC20" s="12"/>
     </row>
     <row r="21" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="3">
         <f>SUM(C23,C25,C27)</f>
         <v>32</v>
@@ -2929,11 +3004,11 @@
       <c r="BC21" s="10"/>
     </row>
     <row r="22" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="4">
-        <f>SUM(C24,C28)</f>
-        <v>11</v>
+        <f>SUM(C24,C26,C28)</f>
+        <v>28</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
@@ -2958,7 +3033,7 @@
       <c r="X22" s="29"/>
       <c r="Y22" s="32"/>
       <c r="Z22" s="32"/>
-      <c r="AA22" s="24"/>
+      <c r="AA22" s="34"/>
       <c r="AB22" s="23"/>
       <c r="AC22" s="23"/>
       <c r="AD22" s="23"/>
@@ -2967,9 +3042,9 @@
       <c r="AG22" s="25"/>
       <c r="AH22" s="25"/>
       <c r="AI22" s="24"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
       <c r="AM22" s="24"/>
       <c r="AN22" s="14"/>
       <c r="AO22" s="15"/>
@@ -2989,10 +3064,10 @@
       <c r="BC22" s="24"/>
     </row>
     <row r="23" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40">
+      <c r="A23" s="41">
         <v>3.1</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6">
@@ -3052,8 +3127,8 @@
       <c r="BC23" s="24"/>
     </row>
     <row r="24" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="18">
         <v>10</v>
       </c>
@@ -3111,10 +3186,10 @@
       <c r="BC24" s="24"/>
     </row>
     <row r="25" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40">
+      <c r="A25" s="41">
         <v>3.2</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="6">
@@ -3152,10 +3227,10 @@
       <c r="AG25" s="25"/>
       <c r="AH25" s="25"/>
       <c r="AI25" s="24"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="50"/>
-      <c r="AL25" s="50"/>
-      <c r="AM25" s="51"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="24"/>
       <c r="AN25" s="14"/>
       <c r="AO25" s="15"/>
       <c r="AP25" s="15"/>
@@ -3174,10 +3249,10 @@
       <c r="BC25" s="24"/>
     </row>
     <row r="26" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
@@ -3211,7 +3286,7 @@
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
       <c r="AI26" s="24"/>
-      <c r="AJ26" s="14"/>
+      <c r="AJ26" s="29"/>
       <c r="AK26" s="15"/>
       <c r="AL26" s="15"/>
       <c r="AM26" s="24"/>
@@ -3233,10 +3308,10 @@
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40">
+      <c r="A27" s="41">
         <v>3.3</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="41" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="6">
@@ -3296,10 +3371,10 @@
       <c r="BC27" s="24"/>
     </row>
     <row r="28" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28"/>
@@ -3321,9 +3396,9 @@
       <c r="U28" s="28"/>
       <c r="V28" s="28"/>
       <c r="W28" s="12"/>
-      <c r="X28" s="52"/>
+      <c r="X28" s="11"/>
       <c r="Y28" s="28"/>
-      <c r="Z28" s="54"/>
+      <c r="Z28" s="28"/>
       <c r="AA28" s="36"/>
       <c r="AB28" s="23"/>
       <c r="AC28" s="23"/>
@@ -3333,9 +3408,9 @@
       <c r="AG28" s="17"/>
       <c r="AH28" s="17"/>
       <c r="AI28" s="12"/>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="30"/>
       <c r="AM28" s="12"/>
       <c r="AN28" s="11"/>
       <c r="AO28" s="28"/>
@@ -3355,10 +3430,10 @@
       <c r="BC28" s="12"/>
     </row>
     <row r="29" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="3">
         <f>SUM(C31)</f>
         <v>8</v>
@@ -3417,11 +3492,11 @@
       <c r="BC29" s="10"/>
     </row>
     <row r="30" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="4">
         <f>SUM(C32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
@@ -3458,7 +3533,7 @@
       <c r="AJ30" s="14"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="15"/>
-      <c r="AM30" s="24"/>
+      <c r="AM30" s="34"/>
       <c r="AN30" s="14"/>
       <c r="AO30" s="15"/>
       <c r="AP30" s="15"/>
@@ -3477,10 +3552,10 @@
       <c r="BC30" s="24"/>
     </row>
     <row r="31" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40">
+      <c r="A31" s="41">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="6">
@@ -3522,10 +3597,10 @@
       <c r="AK31" s="15"/>
       <c r="AL31" s="15"/>
       <c r="AM31" s="24"/>
-      <c r="AN31" s="14"/>
-      <c r="AO31" s="15"/>
-      <c r="AP31" s="15"/>
-      <c r="AQ31" s="24"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="33"/>
       <c r="AR31" s="14"/>
       <c r="AS31" s="15"/>
       <c r="AT31" s="15"/>
@@ -3540,11 +3615,10 @@
       <c r="BC31" s="24"/>
     </row>
     <row r="32" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="18">
-        <f t="shared" ref="C32" si="1">SUM(D32:BC32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
@@ -3581,7 +3655,7 @@
       <c r="AJ32" s="14"/>
       <c r="AK32" s="15"/>
       <c r="AL32" s="15"/>
-      <c r="AM32" s="24"/>
+      <c r="AM32" s="34"/>
       <c r="AN32" s="14"/>
       <c r="AO32" s="15"/>
       <c r="AP32" s="15"/>
@@ -3600,12 +3674,12 @@
       <c r="BC32" s="24"/>
     </row>
     <row r="33" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="43"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:C34" si="2">SUM(C35,C37)</f>
+        <f t="shared" ref="C33:C34" si="1">SUM(C35,C37)</f>
         <v>8</v>
       </c>
       <c r="D33" s="9"/>
@@ -3662,10 +3736,10 @@
       <c r="BC33" s="10"/>
     </row>
     <row r="34" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D34" s="14"/>
@@ -3722,10 +3796,10 @@
       <c r="BC34" s="24"/>
     </row>
     <row r="35" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40">
+      <c r="A35" s="41">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="6">
@@ -3785,10 +3859,10 @@
       <c r="BC35" s="24"/>
     </row>
     <row r="36" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="18">
-        <f t="shared" ref="C36:C38" si="3">SUM(D36:BC36)</f>
+        <f t="shared" ref="C36:C38" si="2">SUM(D36:BC36)</f>
         <v>0</v>
       </c>
       <c r="D36" s="14"/>
@@ -3845,10 +3919,10 @@
       <c r="BC36" s="24"/>
     </row>
     <row r="37" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40">
+      <c r="A37" s="41">
         <v>5.2</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="6">
@@ -3908,10 +3982,10 @@
       <c r="BC37" s="24"/>
     </row>
     <row r="38" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D38" s="11"/>
@@ -3968,10 +4042,10 @@
       <c r="BC38" s="12"/>
     </row>
     <row r="39" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="3">
         <f>SUM(C41,C45,C43)</f>
         <v>25</v>
@@ -4030,11 +4104,11 @@
       <c r="BC39" s="10"/>
     </row>
     <row r="40" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="4">
         <f>SUM(C42,C44,C46)</f>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
@@ -4090,10 +4164,10 @@
       <c r="BC40" s="24"/>
     </row>
     <row r="41" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="6">
@@ -4153,10 +4227,10 @@
       <c r="BC41" s="33"/>
     </row>
     <row r="42" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
@@ -4181,7 +4255,7 @@
       <c r="X42" s="14"/>
       <c r="Y42" s="15"/>
       <c r="Z42" s="32"/>
-      <c r="AA42" s="51"/>
+      <c r="AA42" s="24"/>
       <c r="AB42" s="23"/>
       <c r="AC42" s="23"/>
       <c r="AD42" s="23"/>
@@ -4193,7 +4267,7 @@
       <c r="AJ42" s="14"/>
       <c r="AK42" s="15"/>
       <c r="AL42" s="15"/>
-      <c r="AM42" s="24"/>
+      <c r="AM42" s="34"/>
       <c r="AN42" s="14"/>
       <c r="AO42" s="15"/>
       <c r="AP42" s="15"/>
@@ -4212,10 +4286,10 @@
       <c r="BC42" s="24"/>
     </row>
     <row r="43" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="41" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="6">
@@ -4275,10 +4349,10 @@
       <c r="BC43" s="24"/>
     </row>
     <row r="44" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
@@ -4315,7 +4389,7 @@
       <c r="AJ44" s="14"/>
       <c r="AK44" s="15"/>
       <c r="AL44" s="15"/>
-      <c r="AM44" s="24"/>
+      <c r="AM44" s="34"/>
       <c r="AN44" s="14"/>
       <c r="AO44" s="15"/>
       <c r="AP44" s="15"/>
@@ -4334,10 +4408,10 @@
       <c r="BC44" s="24"/>
     </row>
     <row r="45" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="6">
@@ -4397,8 +4471,8 @@
       <c r="BC45" s="24"/>
     </row>
     <row r="46" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="18">
         <v>1</v>
       </c>
@@ -4456,10 +4530,10 @@
       <c r="BC46" s="12"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="47"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="19">
         <f>SUM(C3,C9,C13,C21,C29,C39)</f>
         <v>81</v>
@@ -4516,13 +4590,13 @@
       <c r="AY47" s="5"/>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="49"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="20">
         <f>SUM(C4,C10,C14,C22,C30,C40)</f>
-        <v>34.5</v>
+        <v>54</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>

--- a/IPA Zeitplan.xlsx
+++ b/IPA Zeitplan.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wppcloud-my.sharepoint.com/personal/hunter_wilson_wundermanthompson_com/Documents/IPA Documentation/HW-IPA-Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="469" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2D0A0C-A1F6-470E-BDBF-F0338F087A2B}"/>
+  <xr:revisionPtr revIDLastSave="483" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C652A97-2F4C-4D09-B6AE-82485C06333E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
+    <workbookView xWindow="17505" yWindow="-20850" windowWidth="33225" windowHeight="20205" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -855,14 +854,14 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>79513</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>79513</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>160196</xdr:colOff>
+      <xdr:colOff>162101</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>109669</xdr:rowOff>
+      <xdr:rowOff>107763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -877,8 +876,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12097342" y="3192827"/>
-          <a:ext cx="341940" cy="737728"/>
+          <a:off x="11968954" y="3160058"/>
+          <a:ext cx="340323" cy="578411"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1343,6 +1342,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>148348</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Arrow: Up 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1C3CAB-E235-4492-A965-65F75A317226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11979088" y="3765177"/>
+          <a:ext cx="316436" cy="425184"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CH" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1669,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F2261-3027-4CFE-88E9-EDFC4439F1C6}">
   <dimension ref="A1:BC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3496,7 +3581,7 @@
       <c r="B30" s="46"/>
       <c r="C30" s="4">
         <f>SUM(C32)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
@@ -3534,9 +3619,9 @@
       <c r="AK30" s="15"/>
       <c r="AL30" s="15"/>
       <c r="AM30" s="34"/>
-      <c r="AN30" s="14"/>
-      <c r="AO30" s="15"/>
-      <c r="AP30" s="15"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
       <c r="AQ30" s="24"/>
       <c r="AR30" s="14"/>
       <c r="AS30" s="15"/>
@@ -3618,7 +3703,7 @@
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
@@ -3656,9 +3741,9 @@
       <c r="AK32" s="15"/>
       <c r="AL32" s="15"/>
       <c r="AM32" s="34"/>
-      <c r="AN32" s="14"/>
-      <c r="AO32" s="15"/>
-      <c r="AP32" s="15"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="32"/>
       <c r="AQ32" s="24"/>
       <c r="AR32" s="14"/>
       <c r="AS32" s="15"/>
@@ -3740,7 +3825,7 @@
       <c r="B34" s="46"/>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
@@ -3781,7 +3866,7 @@
       <c r="AN34" s="14"/>
       <c r="AO34" s="15"/>
       <c r="AP34" s="15"/>
-      <c r="AQ34" s="24"/>
+      <c r="AQ34" s="34"/>
       <c r="AR34" s="14"/>
       <c r="AS34" s="15"/>
       <c r="AT34" s="15"/>
@@ -3862,8 +3947,7 @@
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="18">
-        <f t="shared" ref="C36:C38" si="2">SUM(D36:BC36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
@@ -3904,7 +3988,7 @@
       <c r="AN36" s="14"/>
       <c r="AO36" s="15"/>
       <c r="AP36" s="15"/>
-      <c r="AQ36" s="24"/>
+      <c r="AQ36" s="34"/>
       <c r="AR36" s="14"/>
       <c r="AS36" s="15"/>
       <c r="AT36" s="15"/>
@@ -3985,7 +4069,6 @@
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="18">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D38" s="11"/>
@@ -4271,7 +4354,7 @@
       <c r="AN42" s="14"/>
       <c r="AO42" s="15"/>
       <c r="AP42" s="15"/>
-      <c r="AQ42" s="24"/>
+      <c r="AQ42" s="34"/>
       <c r="AR42" s="14"/>
       <c r="AS42" s="15"/>
       <c r="AT42" s="15"/>
@@ -4393,7 +4476,7 @@
       <c r="AN44" s="14"/>
       <c r="AO44" s="15"/>
       <c r="AP44" s="15"/>
-      <c r="AQ44" s="24"/>
+      <c r="AQ44" s="34"/>
       <c r="AR44" s="14"/>
       <c r="AS44" s="15"/>
       <c r="AT44" s="15"/>
@@ -4596,7 +4679,7 @@
       <c r="B48" s="50"/>
       <c r="C48" s="20">
         <f>SUM(C4,C10,C14,C22,C30,C40)</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>

--- a/IPA Zeitplan.xlsx
+++ b/IPA Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wppcloud-my.sharepoint.com/personal/hunter_wilson_wundermanthompson_com/Documents/IPA Documentation/HW-IPA-Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="483" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C652A97-2F4C-4D09-B6AE-82485C06333E}"/>
+  <xr:revisionPtr revIDLastSave="502" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ADBA10B-1CAC-4048-BB8B-2D76FD42DDA2}"/>
   <bookViews>
-    <workbookView xWindow="17505" yWindow="-20850" windowWidth="33225" windowHeight="20205" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
+    <workbookView xWindow="22320" yWindow="-21015" windowWidth="28410" windowHeight="20370" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,15 +543,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,10 +552,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -580,6 +571,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1428,6 +1428,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>104663</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>151933</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>32978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Arrow: Up 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87D4E3D-ECF8-4FF4-A630-D1AC689CF616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13025045" y="4314265"/>
+          <a:ext cx="305006" cy="425184"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CH" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1755,7 +1841,7 @@
   <dimension ref="A1:BC48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+      <selection activeCell="AW51" sqref="AW51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,172 +1853,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="38" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="38" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="38" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="38" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="38" t="s">
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="40"/>
-      <c r="AF1" s="38" t="s">
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="50"/>
+      <c r="AF1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="38" t="s">
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="38" t="s">
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="38" t="s">
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="38" t="s">
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="40"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="50"/>
     </row>
     <row r="2" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="38" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="38" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="38" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="38" t="s">
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="38" t="s">
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="40"/>
-      <c r="AF2" s="38" t="s">
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="50"/>
+      <c r="AF2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="38" t="s">
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="38" t="s">
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="38" t="s">
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="38" t="s">
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="38" t="s">
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="39"/>
-      <c r="BC2" s="40"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="50"/>
     </row>
     <row r="3" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="3">
         <f>SUM(C5,C7)</f>
         <v>4</v>
@@ -1991,8 +2077,8 @@
       <c r="BC3" s="10"/>
     </row>
     <row r="4" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4">
         <f>SUM(C6,C8)</f>
         <v>4</v>
@@ -2051,10 +2137,10 @@
       <c r="BC4" s="24"/>
     </row>
     <row r="5" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="6">
@@ -2114,8 +2200,8 @@
       <c r="BC5" s="24"/>
     </row>
     <row r="6" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="18">
         <v>2</v>
       </c>
@@ -2173,10 +2259,10 @@
       <c r="BC6" s="24"/>
     </row>
     <row r="7" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="38" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="6">
@@ -2236,8 +2322,8 @@
       <c r="BC7" s="24"/>
     </row>
     <row r="8" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="18">
         <v>2</v>
       </c>
@@ -2295,10 +2381,10 @@
       <c r="BC8" s="12"/>
     </row>
     <row r="9" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="3">
         <f>SUM(C11)</f>
         <v>4</v>
@@ -2357,8 +2443,8 @@
       <c r="BC9" s="10"/>
     </row>
     <row r="10" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4">
         <f>SUM(C12)</f>
         <v>4</v>
@@ -2417,10 +2503,10 @@
       <c r="BC10" s="24"/>
     </row>
     <row r="11" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+      <c r="A11" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="6">
@@ -2480,8 +2566,8 @@
       <c r="BC11" s="24"/>
     </row>
     <row r="12" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="18">
         <v>4</v>
       </c>
@@ -2539,10 +2625,10 @@
       <c r="BC12" s="24"/>
     </row>
     <row r="13" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="3">
         <f>SUM(C15,C17,C19)</f>
         <v>8</v>
@@ -2559,7 +2645,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="13"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="9"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="10"/>
@@ -2601,8 +2687,8 @@
       <c r="BC13" s="10"/>
     </row>
     <row r="14" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="4">
         <f t="shared" ref="C14" si="0">SUM(C16,C18)</f>
         <v>8</v>
@@ -2611,15 +2697,15 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="24"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="14"/>
       <c r="M14" s="24"/>
       <c r="N14" s="15"/>
       <c r="O14" s="24"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="29"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="24"/>
@@ -2661,10 +2747,10 @@
       <c r="BC14" s="24"/>
     </row>
     <row r="15" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+      <c r="A15" s="38">
         <v>2.1</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="38" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="6">
@@ -2724,8 +2810,8 @@
       <c r="BC15" s="24"/>
     </row>
     <row r="16" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="18">
         <v>1</v>
       </c>
@@ -2783,10 +2869,10 @@
       <c r="BC16" s="24"/>
     </row>
     <row r="17" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+      <c r="A17" s="38">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="38" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6">
@@ -2846,8 +2932,8 @@
       <c r="BC17" s="24"/>
     </row>
     <row r="18" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="18">
         <v>7</v>
       </c>
@@ -2905,10 +2991,10 @@
       <c r="BC18" s="24"/>
     </row>
     <row r="19" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="40">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="6">
@@ -2968,8 +3054,8 @@
       <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="18">
         <v>1</v>
       </c>
@@ -3027,10 +3113,10 @@
       <c r="BC20" s="12"/>
     </row>
     <row r="21" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="3">
         <f>SUM(C23,C25,C27)</f>
         <v>32</v>
@@ -3089,8 +3175,8 @@
       <c r="BC21" s="10"/>
     </row>
     <row r="22" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="4">
         <f>SUM(C24,C26,C28)</f>
         <v>28</v>
@@ -3149,10 +3235,10 @@
       <c r="BC22" s="24"/>
     </row>
     <row r="23" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41">
+      <c r="A23" s="38">
         <v>3.1</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6">
@@ -3212,8 +3298,8 @@
       <c r="BC23" s="24"/>
     </row>
     <row r="24" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="18">
         <v>10</v>
       </c>
@@ -3271,10 +3357,10 @@
       <c r="BC24" s="24"/>
     </row>
     <row r="25" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41">
+      <c r="A25" s="38">
         <v>3.2</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="38" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="6">
@@ -3334,8 +3420,8 @@
       <c r="BC25" s="24"/>
     </row>
     <row r="26" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="18">
         <v>11</v>
       </c>
@@ -3393,10 +3479,10 @@
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41">
+      <c r="A27" s="38">
         <v>3.3</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="6">
@@ -3456,8 +3542,8 @@
       <c r="BC27" s="24"/>
     </row>
     <row r="28" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="18">
         <v>7</v>
       </c>
@@ -3515,10 +3601,10 @@
       <c r="BC28" s="12"/>
     </row>
     <row r="29" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="3">
         <f>SUM(C31)</f>
         <v>8</v>
@@ -3577,8 +3663,8 @@
       <c r="BC29" s="10"/>
     </row>
     <row r="30" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="4">
         <f>SUM(C32)</f>
         <v>7</v>
@@ -3637,10 +3723,10 @@
       <c r="BC30" s="24"/>
     </row>
     <row r="31" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41">
+      <c r="A31" s="38">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="38" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="6">
@@ -3700,8 +3786,8 @@
       <c r="BC31" s="24"/>
     </row>
     <row r="32" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="18">
         <v>7</v>
       </c>
@@ -3759,10 +3845,10 @@
       <c r="BC32" s="24"/>
     </row>
     <row r="33" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="44"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="3">
         <f t="shared" ref="C33:C34" si="1">SUM(C35,C37)</f>
         <v>8</v>
@@ -3821,11 +3907,11 @@
       <c r="BC33" s="10"/>
     </row>
     <row r="34" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
@@ -3867,8 +3953,8 @@
       <c r="AO34" s="15"/>
       <c r="AP34" s="15"/>
       <c r="AQ34" s="34"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="15"/>
+      <c r="AR34" s="29"/>
+      <c r="AS34" s="32"/>
       <c r="AT34" s="15"/>
       <c r="AU34" s="24"/>
       <c r="AV34" s="14"/>
@@ -3881,10 +3967,10 @@
       <c r="BC34" s="24"/>
     </row>
     <row r="35" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41">
+      <c r="A35" s="38">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="38" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="6">
@@ -3944,10 +4030,10 @@
       <c r="BC35" s="24"/>
     </row>
     <row r="36" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
@@ -3989,8 +4075,8 @@
       <c r="AO36" s="15"/>
       <c r="AP36" s="15"/>
       <c r="AQ36" s="34"/>
-      <c r="AR36" s="14"/>
-      <c r="AS36" s="15"/>
+      <c r="AR36" s="29"/>
+      <c r="AS36" s="32"/>
       <c r="AT36" s="15"/>
       <c r="AU36" s="24"/>
       <c r="AV36" s="14"/>
@@ -4003,10 +4089,10 @@
       <c r="BC36" s="24"/>
     </row>
     <row r="37" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41">
+      <c r="A37" s="38">
         <v>5.2</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="6">
@@ -4066,10 +4152,10 @@
       <c r="BC37" s="24"/>
     </row>
     <row r="38" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="28"/>
@@ -4113,7 +4199,7 @@
       <c r="AQ38" s="12"/>
       <c r="AR38" s="11"/>
       <c r="AS38" s="28"/>
-      <c r="AT38" s="28"/>
+      <c r="AT38" s="30"/>
       <c r="AU38" s="12"/>
       <c r="AV38" s="11"/>
       <c r="AW38" s="28"/>
@@ -4125,10 +4211,10 @@
       <c r="BC38" s="12"/>
     </row>
     <row r="39" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="44"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="3">
         <f>SUM(C41,C45,C43)</f>
         <v>25</v>
@@ -4136,11 +4222,11 @@
       <c r="D39" s="9"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="9"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="10"/>
+      <c r="K39" s="31"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
       <c r="N39" s="13"/>
@@ -4148,15 +4234,15 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
-      <c r="S39" s="10"/>
+      <c r="S39" s="31"/>
       <c r="T39" s="9"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
-      <c r="W39" s="10"/>
+      <c r="W39" s="31"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
-      <c r="AA39" s="10"/>
+      <c r="AA39" s="31"/>
       <c r="AB39" s="23"/>
       <c r="AC39" s="23"/>
       <c r="AD39" s="23"/>
@@ -4168,55 +4254,55 @@
       <c r="AJ39" s="9"/>
       <c r="AK39" s="13"/>
       <c r="AL39" s="13"/>
-      <c r="AM39" s="10"/>
+      <c r="AM39" s="31"/>
       <c r="AN39" s="9"/>
       <c r="AO39" s="13"/>
       <c r="AP39" s="13"/>
-      <c r="AQ39" s="10"/>
+      <c r="AQ39" s="31"/>
       <c r="AR39" s="9"/>
       <c r="AS39" s="13"/>
       <c r="AT39" s="13"/>
-      <c r="AU39" s="10"/>
-      <c r="AV39" s="9"/>
-      <c r="AW39" s="13"/>
-      <c r="AX39" s="13"/>
-      <c r="AY39" s="10"/>
-      <c r="AZ39" s="9"/>
-      <c r="BA39" s="13"/>
-      <c r="BB39" s="13"/>
-      <c r="BC39" s="10"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="22"/>
+      <c r="AX39" s="22"/>
+      <c r="AY39" s="31"/>
+      <c r="AZ39" s="21"/>
+      <c r="BA39" s="22"/>
+      <c r="BB39" s="22"/>
+      <c r="BC39" s="31"/>
     </row>
     <row r="40" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="4">
         <f>SUM(C42,C44,C46)</f>
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="24"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="24"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="14"/>
       <c r="M40" s="24"/>
       <c r="N40" s="15"/>
       <c r="O40" s="24"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="15"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="32"/>
       <c r="R40" s="15"/>
-      <c r="S40" s="24"/>
+      <c r="S40" s="34"/>
       <c r="T40" s="14"/>
       <c r="U40" s="15"/>
       <c r="V40" s="15"/>
-      <c r="W40" s="24"/>
+      <c r="W40" s="34"/>
       <c r="X40" s="14"/>
       <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="24"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="34"/>
       <c r="AB40" s="23"/>
       <c r="AC40" s="23"/>
       <c r="AD40" s="23"/>
@@ -4228,11 +4314,11 @@
       <c r="AJ40" s="14"/>
       <c r="AK40" s="15"/>
       <c r="AL40" s="15"/>
-      <c r="AM40" s="24"/>
+      <c r="AM40" s="34"/>
       <c r="AN40" s="14"/>
       <c r="AO40" s="15"/>
       <c r="AP40" s="15"/>
-      <c r="AQ40" s="24"/>
+      <c r="AQ40" s="34"/>
       <c r="AR40" s="14"/>
       <c r="AS40" s="15"/>
       <c r="AT40" s="15"/>
@@ -4247,10 +4333,10 @@
       <c r="BC40" s="24"/>
     </row>
     <row r="41" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="6">
@@ -4310,10 +4396,10 @@
       <c r="BC41" s="33"/>
     </row>
     <row r="42" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
@@ -4357,8 +4443,8 @@
       <c r="AQ42" s="34"/>
       <c r="AR42" s="14"/>
       <c r="AS42" s="15"/>
-      <c r="AT42" s="15"/>
-      <c r="AU42" s="24"/>
+      <c r="AT42" s="32"/>
+      <c r="AU42" s="34"/>
       <c r="AV42" s="14"/>
       <c r="AW42" s="15"/>
       <c r="AX42" s="15"/>
@@ -4369,10 +4455,10 @@
       <c r="BC42" s="24"/>
     </row>
     <row r="43" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="6">
@@ -4432,10 +4518,10 @@
       <c r="BC43" s="24"/>
     </row>
     <row r="44" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
@@ -4480,7 +4566,7 @@
       <c r="AR44" s="14"/>
       <c r="AS44" s="15"/>
       <c r="AT44" s="15"/>
-      <c r="AU44" s="24"/>
+      <c r="AU44" s="34"/>
       <c r="AV44" s="14"/>
       <c r="AW44" s="15"/>
       <c r="AX44" s="15"/>
@@ -4491,10 +4577,10 @@
       <c r="BC44" s="24"/>
     </row>
     <row r="45" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="6">
@@ -4554,8 +4640,8 @@
       <c r="BC45" s="24"/>
     </row>
     <row r="46" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="18">
         <v>1</v>
       </c>
@@ -4613,10 +4699,10 @@
       <c r="BC46" s="12"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="48"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="19">
         <f>SUM(C3,C9,C13,C21,C29,C39)</f>
         <v>81</v>
@@ -4673,13 +4759,13 @@
       <c r="AY47" s="5"/>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="50"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="20">
         <f>SUM(C4,C10,C14,C22,C30,C40)</f>
-        <v>60</v>
+        <v>63.5</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
@@ -4732,26 +4818,35 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="A13:B14"/>
@@ -4768,35 +4863,26 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AZ2:BC2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A33:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IPA Zeitplan.xlsx
+++ b/IPA Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wppcloud-my.sharepoint.com/personal/hunter_wilson_wundermanthompson_com/Documents/IPA Documentation/HW-IPA-Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="502" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ADBA10B-1CAC-4048-BB8B-2D76FD42DDA2}"/>
+  <xr:revisionPtr revIDLastSave="514" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D41DDA77-761B-41F2-A304-B3CFB45B6C5B}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="-21015" windowWidth="28410" windowHeight="20370" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
+    <workbookView xWindow="17010" yWindow="-21240" windowWidth="22575" windowHeight="20370" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,6 +543,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,10 +561,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -571,15 +580,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,7 +1841,7 @@
   <dimension ref="A1:BC48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW51" sqref="AW51"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1853,172 +1853,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="48" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="48" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="48" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="48" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="50"/>
-      <c r="AF1" s="48" t="s">
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="40"/>
+      <c r="AF1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="48" t="s">
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="48" t="s">
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="48" t="s">
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="48" t="s">
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="48" t="s">
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="50"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="40"/>
     </row>
     <row r="2" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="48" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="48" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="48" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="48" t="s">
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="48" t="s">
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="50"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="40"/>
+      <c r="AF2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="48" t="s">
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="48" t="s">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="48" t="s">
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="48" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="48" t="s">
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="50"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="40"/>
     </row>
     <row r="3" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="3">
         <f>SUM(C5,C7)</f>
         <v>4</v>
@@ -2077,8 +2077,8 @@
       <c r="BC3" s="10"/>
     </row>
     <row r="4" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="4">
         <f>SUM(C6,C8)</f>
         <v>4</v>
@@ -2137,10 +2137,10 @@
       <c r="BC4" s="24"/>
     </row>
     <row r="5" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="6">
@@ -2200,8 +2200,8 @@
       <c r="BC5" s="24"/>
     </row>
     <row r="6" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="18">
         <v>2</v>
       </c>
@@ -2259,10 +2259,10 @@
       <c r="BC6" s="24"/>
     </row>
     <row r="7" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="6">
@@ -2322,8 +2322,8 @@
       <c r="BC7" s="24"/>
     </row>
     <row r="8" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="18">
         <v>2</v>
       </c>
@@ -2381,10 +2381,10 @@
       <c r="BC8" s="12"/>
     </row>
     <row r="9" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="3">
         <f>SUM(C11)</f>
         <v>4</v>
@@ -2443,8 +2443,8 @@
       <c r="BC9" s="10"/>
     </row>
     <row r="10" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="4">
         <f>SUM(C12)</f>
         <v>4</v>
@@ -2503,10 +2503,10 @@
       <c r="BC10" s="24"/>
     </row>
     <row r="11" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+      <c r="A11" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="6">
@@ -2566,8 +2566,8 @@
       <c r="BC11" s="24"/>
     </row>
     <row r="12" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="18">
         <v>4</v>
       </c>
@@ -2625,10 +2625,10 @@
       <c r="BC12" s="24"/>
     </row>
     <row r="13" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="3">
         <f>SUM(C15,C17,C19)</f>
         <v>8</v>
@@ -2687,8 +2687,8 @@
       <c r="BC13" s="10"/>
     </row>
     <row r="14" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="4">
         <f t="shared" ref="C14" si="0">SUM(C16,C18)</f>
         <v>8</v>
@@ -2747,10 +2747,10 @@
       <c r="BC14" s="24"/>
     </row>
     <row r="15" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+      <c r="A15" s="41">
         <v>2.1</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="6">
@@ -2810,8 +2810,8 @@
       <c r="BC15" s="24"/>
     </row>
     <row r="16" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="18">
         <v>1</v>
       </c>
@@ -2869,10 +2869,10 @@
       <c r="BC16" s="24"/>
     </row>
     <row r="17" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
+      <c r="A17" s="41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6">
@@ -2932,8 +2932,8 @@
       <c r="BC17" s="24"/>
     </row>
     <row r="18" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="18">
         <v>7</v>
       </c>
@@ -2991,10 +2991,10 @@
       <c r="BC18" s="24"/>
     </row>
     <row r="19" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
+      <c r="A19" s="43">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="6">
@@ -3054,8 +3054,8 @@
       <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="18">
         <v>1</v>
       </c>
@@ -3113,10 +3113,10 @@
       <c r="BC20" s="12"/>
     </row>
     <row r="21" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="3">
         <f>SUM(C23,C25,C27)</f>
         <v>32</v>
@@ -3175,8 +3175,8 @@
       <c r="BC21" s="10"/>
     </row>
     <row r="22" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="4">
         <f>SUM(C24,C26,C28)</f>
         <v>28</v>
@@ -3235,10 +3235,10 @@
       <c r="BC22" s="24"/>
     </row>
     <row r="23" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38">
+      <c r="A23" s="41">
         <v>3.1</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6">
@@ -3298,8 +3298,8 @@
       <c r="BC23" s="24"/>
     </row>
     <row r="24" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="18">
         <v>10</v>
       </c>
@@ -3357,10 +3357,10 @@
       <c r="BC24" s="24"/>
     </row>
     <row r="25" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38">
+      <c r="A25" s="41">
         <v>3.2</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="6">
@@ -3420,8 +3420,8 @@
       <c r="BC25" s="24"/>
     </row>
     <row r="26" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="18">
         <v>11</v>
       </c>
@@ -3479,10 +3479,10 @@
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38">
+      <c r="A27" s="41">
         <v>3.3</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="41" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="6">
@@ -3542,8 +3542,8 @@
       <c r="BC27" s="24"/>
     </row>
     <row r="28" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="18">
         <v>7</v>
       </c>
@@ -3601,10 +3601,10 @@
       <c r="BC28" s="12"/>
     </row>
     <row r="29" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="3">
         <f>SUM(C31)</f>
         <v>8</v>
@@ -3663,8 +3663,8 @@
       <c r="BC29" s="10"/>
     </row>
     <row r="30" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="4">
         <f>SUM(C32)</f>
         <v>7</v>
@@ -3723,10 +3723,10 @@
       <c r="BC30" s="24"/>
     </row>
     <row r="31" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38">
+      <c r="A31" s="41">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="6">
@@ -3786,8 +3786,8 @@
       <c r="BC31" s="24"/>
     </row>
     <row r="32" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="18">
         <v>7</v>
       </c>
@@ -3845,10 +3845,10 @@
       <c r="BC32" s="24"/>
     </row>
     <row r="33" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="42"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="3">
         <f t="shared" ref="C33:C34" si="1">SUM(C35,C37)</f>
         <v>8</v>
@@ -3907,8 +3907,8 @@
       <c r="BC33" s="10"/>
     </row>
     <row r="34" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3967,10 +3967,10 @@
       <c r="BC34" s="24"/>
     </row>
     <row r="35" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38">
+      <c r="A35" s="41">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="6">
@@ -4030,8 +4030,8 @@
       <c r="BC35" s="24"/>
     </row>
     <row r="36" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="18">
         <v>5</v>
       </c>
@@ -4089,10 +4089,10 @@
       <c r="BC36" s="24"/>
     </row>
     <row r="37" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38">
+      <c r="A37" s="41">
         <v>5.2</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="6">
@@ -4152,8 +4152,8 @@
       <c r="BC37" s="24"/>
     </row>
     <row r="38" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="18">
         <v>1</v>
       </c>
@@ -4211,10 +4211,10 @@
       <c r="BC38" s="12"/>
     </row>
     <row r="39" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="3">
         <f>SUM(C41,C45,C43)</f>
         <v>25</v>
@@ -4273,11 +4273,11 @@
       <c r="BC39" s="31"/>
     </row>
     <row r="40" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="4">
         <f>SUM(C42,C44,C46)</f>
-        <v>12.5</v>
+        <v>21.5</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
@@ -4321,22 +4321,22 @@
       <c r="AQ40" s="34"/>
       <c r="AR40" s="14"/>
       <c r="AS40" s="15"/>
-      <c r="AT40" s="15"/>
-      <c r="AU40" s="24"/>
-      <c r="AV40" s="14"/>
-      <c r="AW40" s="15"/>
-      <c r="AX40" s="15"/>
-      <c r="AY40" s="24"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="34"/>
+      <c r="AV40" s="29"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="32"/>
+      <c r="AY40" s="34"/>
       <c r="AZ40" s="14"/>
       <c r="BA40" s="15"/>
       <c r="BB40" s="15"/>
       <c r="BC40" s="24"/>
     </row>
     <row r="41" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="6">
@@ -4396,10 +4396,10 @@
       <c r="BC41" s="33"/>
     </row>
     <row r="42" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
@@ -4445,20 +4445,20 @@
       <c r="AS42" s="15"/>
       <c r="AT42" s="32"/>
       <c r="AU42" s="34"/>
-      <c r="AV42" s="14"/>
-      <c r="AW42" s="15"/>
-      <c r="AX42" s="15"/>
-      <c r="AY42" s="24"/>
+      <c r="AV42" s="29"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="32"/>
+      <c r="AY42" s="34"/>
       <c r="AZ42" s="14"/>
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
       <c r="BC42" s="24"/>
     </row>
     <row r="43" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="41" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="6">
@@ -4518,10 +4518,10 @@
       <c r="BC43" s="24"/>
     </row>
     <row r="44" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="18">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
@@ -4570,17 +4570,17 @@
       <c r="AV44" s="14"/>
       <c r="AW44" s="15"/>
       <c r="AX44" s="15"/>
-      <c r="AY44" s="24"/>
+      <c r="AY44" s="34"/>
       <c r="AZ44" s="14"/>
       <c r="BA44" s="15"/>
       <c r="BB44" s="15"/>
       <c r="BC44" s="24"/>
     </row>
     <row r="45" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="6">
@@ -4640,10 +4640,10 @@
       <c r="BC45" s="24"/>
     </row>
     <row r="46" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="28"/>
@@ -4692,17 +4692,17 @@
       <c r="AV46" s="11"/>
       <c r="AW46" s="28"/>
       <c r="AX46" s="28"/>
-      <c r="AY46" s="12"/>
+      <c r="AY46" s="36"/>
       <c r="AZ46" s="11"/>
       <c r="BA46" s="28"/>
       <c r="BB46" s="28"/>
       <c r="BC46" s="12"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="45"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="19">
         <f>SUM(C3,C9,C13,C21,C29,C39)</f>
         <v>81</v>
@@ -4759,13 +4759,13 @@
       <c r="AY47" s="5"/>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="47"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="20">
         <f>SUM(C4,C10,C14,C22,C30,C40)</f>
-        <v>63.5</v>
+        <v>72.5</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
@@ -4818,19 +4818,42 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
@@ -4847,42 +4870,19 @@
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IPA Zeitplan.xlsx
+++ b/IPA Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wppcloud-my.sharepoint.com/personal/hunter_wilson_wundermanthompson_com/Documents/IPA Documentation/HW-IPA-Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D41DDA77-761B-41F2-A304-B3CFB45B6C5B}"/>
+  <xr:revisionPtr revIDLastSave="520" documentId="8_{F6615CCB-4CE0-47C2-8D51-EC627332FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6344C2B2-2AC0-4425-9EDA-F7C64B4E2AF0}"/>
   <bookViews>
-    <workbookView xWindow="17010" yWindow="-21240" windowWidth="22575" windowHeight="20370" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
+    <workbookView xWindow="16665" yWindow="-21360" windowWidth="28245" windowHeight="20850" xr2:uid="{863118AE-2292-4FF9-8F68-0BB1597C8F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,15 +543,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,10 +552,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -580,6 +571,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1514,6 +1514,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>150028</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Arrow: Up 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34BA879-B78E-4C65-988B-94797EA6A794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15083117" y="5109882"/>
+          <a:ext cx="306911" cy="425184"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CH" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1840,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F2261-3027-4CFE-88E9-EDFC4439F1C6}">
   <dimension ref="A1:BC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AZ51" sqref="AZ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1853,172 +1939,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="38" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="38" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="38" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="38" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="38" t="s">
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="40"/>
-      <c r="AF1" s="38" t="s">
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="50"/>
+      <c r="AF1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="38" t="s">
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="38" t="s">
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="38" t="s">
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="38" t="s">
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="40"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="50"/>
     </row>
     <row r="2" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="38" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="38" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="38" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="38" t="s">
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="38" t="s">
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="40"/>
-      <c r="AF2" s="38" t="s">
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="50"/>
+      <c r="AF2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="38" t="s">
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="38" t="s">
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="38" t="s">
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="38" t="s">
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="38" t="s">
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="39"/>
-      <c r="BC2" s="40"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="50"/>
     </row>
     <row r="3" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="3">
         <f>SUM(C5,C7)</f>
         <v>4</v>
@@ -2077,8 +2163,8 @@
       <c r="BC3" s="10"/>
     </row>
     <row r="4" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4">
         <f>SUM(C6,C8)</f>
         <v>4</v>
@@ -2137,10 +2223,10 @@
       <c r="BC4" s="24"/>
     </row>
     <row r="5" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="6">
@@ -2200,8 +2286,8 @@
       <c r="BC5" s="24"/>
     </row>
     <row r="6" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="18">
         <v>2</v>
       </c>
@@ -2259,10 +2345,10 @@
       <c r="BC6" s="24"/>
     </row>
     <row r="7" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="38" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="6">
@@ -2322,8 +2408,8 @@
       <c r="BC7" s="24"/>
     </row>
     <row r="8" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="18">
         <v>2</v>
       </c>
@@ -2381,10 +2467,10 @@
       <c r="BC8" s="12"/>
     </row>
     <row r="9" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="3">
         <f>SUM(C11)</f>
         <v>4</v>
@@ -2443,8 +2529,8 @@
       <c r="BC9" s="10"/>
     </row>
     <row r="10" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4">
         <f>SUM(C12)</f>
         <v>4</v>
@@ -2503,10 +2589,10 @@
       <c r="BC10" s="24"/>
     </row>
     <row r="11" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+      <c r="A11" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="6">
@@ -2566,8 +2652,8 @@
       <c r="BC11" s="24"/>
     </row>
     <row r="12" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="18">
         <v>4</v>
       </c>
@@ -2625,10 +2711,10 @@
       <c r="BC12" s="24"/>
     </row>
     <row r="13" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="3">
         <f>SUM(C15,C17,C19)</f>
         <v>8</v>
@@ -2687,8 +2773,8 @@
       <c r="BC13" s="10"/>
     </row>
     <row r="14" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="4">
         <f t="shared" ref="C14" si="0">SUM(C16,C18)</f>
         <v>8</v>
@@ -2747,10 +2833,10 @@
       <c r="BC14" s="24"/>
     </row>
     <row r="15" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+      <c r="A15" s="38">
         <v>2.1</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="38" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="6">
@@ -2810,8 +2896,8 @@
       <c r="BC15" s="24"/>
     </row>
     <row r="16" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="18">
         <v>1</v>
       </c>
@@ -2869,10 +2955,10 @@
       <c r="BC16" s="24"/>
     </row>
     <row r="17" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+      <c r="A17" s="38">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="38" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6">
@@ -2932,8 +3018,8 @@
       <c r="BC17" s="24"/>
     </row>
     <row r="18" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="18">
         <v>7</v>
       </c>
@@ -2991,10 +3077,10 @@
       <c r="BC18" s="24"/>
     </row>
     <row r="19" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="40">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="6">
@@ -3054,8 +3140,8 @@
       <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="18">
         <v>1</v>
       </c>
@@ -3113,10 +3199,10 @@
       <c r="BC20" s="12"/>
     </row>
     <row r="21" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="3">
         <f>SUM(C23,C25,C27)</f>
         <v>32</v>
@@ -3175,8 +3261,8 @@
       <c r="BC21" s="10"/>
     </row>
     <row r="22" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="4">
         <f>SUM(C24,C26,C28)</f>
         <v>28</v>
@@ -3235,10 +3321,10 @@
       <c r="BC22" s="24"/>
     </row>
     <row r="23" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41">
+      <c r="A23" s="38">
         <v>3.1</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6">
@@ -3298,8 +3384,8 @@
       <c r="BC23" s="24"/>
     </row>
     <row r="24" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="18">
         <v>10</v>
       </c>
@@ -3357,10 +3443,10 @@
       <c r="BC24" s="24"/>
     </row>
     <row r="25" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41">
+      <c r="A25" s="38">
         <v>3.2</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="38" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="6">
@@ -3420,8 +3506,8 @@
       <c r="BC25" s="24"/>
     </row>
     <row r="26" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="18">
         <v>11</v>
       </c>
@@ -3479,10 +3565,10 @@
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41">
+      <c r="A27" s="38">
         <v>3.3</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="6">
@@ -3542,8 +3628,8 @@
       <c r="BC27" s="24"/>
     </row>
     <row r="28" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="18">
         <v>7</v>
       </c>
@@ -3601,10 +3687,10 @@
       <c r="BC28" s="12"/>
     </row>
     <row r="29" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="3">
         <f>SUM(C31)</f>
         <v>8</v>
@@ -3663,8 +3749,8 @@
       <c r="BC29" s="10"/>
     </row>
     <row r="30" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="4">
         <f>SUM(C32)</f>
         <v>7</v>
@@ -3723,10 +3809,10 @@
       <c r="BC30" s="24"/>
     </row>
     <row r="31" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41">
+      <c r="A31" s="38">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="38" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="6">
@@ -3786,8 +3872,8 @@
       <c r="BC31" s="24"/>
     </row>
     <row r="32" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="18">
         <v>7</v>
       </c>
@@ -3845,10 +3931,10 @@
       <c r="BC32" s="24"/>
     </row>
     <row r="33" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="44"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="3">
         <f t="shared" ref="C33:C34" si="1">SUM(C35,C37)</f>
         <v>8</v>
@@ -3907,8 +3993,8 @@
       <c r="BC33" s="10"/>
     </row>
     <row r="34" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3967,10 +4053,10 @@
       <c r="BC34" s="24"/>
     </row>
     <row r="35" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41">
+      <c r="A35" s="38">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="38" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="6">
@@ -4030,8 +4116,8 @@
       <c r="BC35" s="24"/>
     </row>
     <row r="36" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="18">
         <v>5</v>
       </c>
@@ -4089,10 +4175,10 @@
       <c r="BC36" s="24"/>
     </row>
     <row r="37" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41">
+      <c r="A37" s="38">
         <v>5.2</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="6">
@@ -4152,8 +4238,8 @@
       <c r="BC37" s="24"/>
     </row>
     <row r="38" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="18">
         <v>1</v>
       </c>
@@ -4211,10 +4297,10 @@
       <c r="BC38" s="12"/>
     </row>
     <row r="39" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="44"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="3">
         <f>SUM(C41,C45,C43)</f>
         <v>25</v>
@@ -4273,11 +4359,11 @@
       <c r="BC39" s="31"/>
     </row>
     <row r="40" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="4">
         <f>SUM(C42,C44,C46)</f>
-        <v>21.5</v>
+        <v>29</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
@@ -4327,16 +4413,16 @@
       <c r="AW40" s="32"/>
       <c r="AX40" s="32"/>
       <c r="AY40" s="34"/>
-      <c r="AZ40" s="14"/>
-      <c r="BA40" s="15"/>
-      <c r="BB40" s="15"/>
-      <c r="BC40" s="24"/>
+      <c r="AZ40" s="29"/>
+      <c r="BA40" s="32"/>
+      <c r="BB40" s="32"/>
+      <c r="BC40" s="34"/>
     </row>
     <row r="41" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="6">
@@ -4396,10 +4482,10 @@
       <c r="BC41" s="33"/>
     </row>
     <row r="42" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="18">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
@@ -4449,16 +4535,16 @@
       <c r="AW42" s="32"/>
       <c r="AX42" s="32"/>
       <c r="AY42" s="34"/>
-      <c r="AZ42" s="14"/>
-      <c r="BA42" s="15"/>
-      <c r="BB42" s="15"/>
-      <c r="BC42" s="24"/>
+      <c r="AZ42" s="29"/>
+      <c r="BA42" s="32"/>
+      <c r="BB42" s="32"/>
+      <c r="BC42" s="34"/>
     </row>
     <row r="43" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="6">
@@ -4518,10 +4604,10 @@
       <c r="BC43" s="24"/>
     </row>
     <row r="44" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="18">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
@@ -4573,14 +4659,14 @@
       <c r="AY44" s="34"/>
       <c r="AZ44" s="14"/>
       <c r="BA44" s="15"/>
-      <c r="BB44" s="15"/>
+      <c r="BB44" s="32"/>
       <c r="BC44" s="24"/>
     </row>
     <row r="45" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="6">
@@ -4640,8 +4726,8 @@
       <c r="BC45" s="24"/>
     </row>
     <row r="46" spans="1:55" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="18">
         <v>2</v>
       </c>
@@ -4699,10 +4785,10 @@
       <c r="BC46" s="12"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="48"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="19">
         <f>SUM(C3,C9,C13,C21,C29,C39)</f>
         <v>81</v>
@@ -4759,13 +4845,13 @@
       <c r="AY47" s="5"/>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="50"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="20">
         <f>SUM(C4,C10,C14,C22,C30,C40)</f>
-        <v>72.5</v>
+        <v>80</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
@@ -4818,26 +4904,35 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="A13:B14"/>
@@ -4854,35 +4949,26 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AZ2:BC2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A33:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
